--- a/sentiment_results_Equifax_Q2.xlsx
+++ b/sentiment_results_Equifax_Q2.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D176"/>
+  <dimension ref="A1:D129"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,7 +454,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Mortgage Fees, Market Fees, Market share, Market share</t>
+          <t>Mortgage Fees, Market share, Market share</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -474,12 +474,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Recurring revenue, Yield Curve steep / flat / inverted, Hard market</t>
+          <t>Recurring revenue</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Sector trend, Macro, Financial metric - All</t>
+          <t>Financial metric - All</t>
         </is>
       </c>
     </row>
@@ -490,136 +490,136 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.176839828491211</v>
+        <v>-0.4378647804260254</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Wage increase, Supplier price increase</t>
+          <t>IT spending</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Sector trend</t>
+          <t>Financial metric - IT</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Strong new product innovation leveraging Equifax Cloud with record New Product Vitality Index of 14%.</t>
+          <t>Very good execution of our 2023 Cloud spending reduction plan. Implemented additional actions to increase spending reduction in 2023 to $210 million and in 2024 to $275 million.</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.2353792190551758</v>
+        <v>1.176839828491211</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Product Cycle / Upcoming Product Cycle, New store productivity</t>
+          <t>IT spending, Wage increase, Supplier price increase</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Sector trend</t>
+          <t>Sector trend, Financial metric - IT</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Workforce Solutions revenue down 4% from challenging mortgage and hiring market partially offset by continued strong revenue growth in Government.</t>
+          <t>Strong new product innovation leveraging Equifax Cloud with record New Product Vitality Index of 14%.</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-7.414056777954102</v>
+        <v>0.2353792190551758</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Core growth, Recurring revenue, Aftermarket growth, Loan growth, Hard market, Organic growth, Premium growth</t>
+          <t>New store productivity</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Financial metric - Insurance, Sector trend, Financial metric - Bank, Financial metric - All</t>
+          <t>Sector trend</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>USIS revenue up 6%, with B2B non-mortgage revenue growth of 7% and strong 9%</t>
+          <t>Workforce Solutions revenue down 4% from challenging mortgage and hiring market partially offset by continued strong revenue growth in Government.</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.6570570468902588</v>
+        <v>-7.414056777954102</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Core growth, Recurring revenue, Aftermarket growth, Loan growth, Organic growth, Premium growth</t>
+          <t>Revenue growth, Recurring revenue, Aftermarket growth, Loan growth, Organic growth, Premium growth</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Financial metric - Insurance, Sector trend, Financial metric - Bank, Financial metric - All</t>
+          <t>Sector trend, Financial metric - All, Financial metric - Bank, Financial metric - Insurance</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Online B2B non-mortgage revenue growth.</t>
+          <t>USIS revenue up 6%, with B2B non-mortgage revenue growth of 7% and strong 9%</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.1825053691864014</v>
+        <v>-0.6570570468902588</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Recurring revenue</t>
+          <t>Revenue growth, Recurring revenue, Aftermarket growth, Loan growth, Organic growth, Premium growth</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Financial metric - All</t>
+          <t>Sector trend, Financial metric - All, Financial metric - Bank, Financial metric - Insurance</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>International constant currency revenue growth of 7%.</t>
+          <t>Online B2B non-mortgage revenue growth.</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.01678609848022461</v>
+        <v>-0.1825053691864014</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Core growth, Recurring revenue, Aftermarket growth, Loan growth, Organic growth, Premium growth</t>
+          <t>Recurring revenue</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Financial metric - Insurance, Sector trend, Financial metric - Bank, Financial metric - All</t>
+          <t>Financial metric - All</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Revising guidance downward to reflect expected impact of weaker than expected U.S. mortgage originations reducing full year 2023 revenue at the midpoint to $5.300 billion. Adjusted EPS guidance revised downward to $6.98 per share at the midpoint from lower mortgage revenue.</t>
+          <t>International constant currency revenue growth of 7%.</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-6.326086044311523</v>
+        <v>-0.01678609848022461</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Recurring revenue, 2 year – 10 year spread</t>
+          <t>Revenue growth, Recurring revenue, Aftermarket growth, Loan growth, Organic growth, Premium growth</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Macro, Financial metric - All</t>
+          <t>Sector trend, Financial metric - All, Financial metric - Bank, Financial metric - Insurance</t>
         </is>
       </c>
     </row>
@@ -630,36 +630,36 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-7.605172157287598</v>
+        <v>-6.326086044311523</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Earnings per Share / EPS, Rate per contract, Market share, Units per transaction, Market share</t>
+          <t>Recurring revenue</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Sector trend, Financial metric - Bank, Financial metric - All</t>
+          <t>Financial metric - All</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>"Equifax had a solid second quarter against a continuing challenging mortgage market, with very good execution against our 2023 Cloud spending reduction plan. Revenue growth of 1% in constant currency was at about the midpoint of our guidance, with continued strong new product performance with a New Product Vitality Index of 14%, a record for Equifax. However, later in the quarter, we saw U.S. mortgage activity at levels below our expectations and slowing U.S. hiring activity, which impacted revenue particularly in Workforce Solutions. Workforce Solutions continued to substantially outperform the underlying mortgage and talent markets, and delivered very strong revenue growth in Government. USIS delivered a strong quarter, which included strong Online B2B non-mortgage growth of 9%, and International delivered constant currency revenue growth of 7%, which was above our expectations," said Mark W. Begor, CEO of Equifax.</t>
+          <t>Revising guidance downward to reflect expected impact of weaker than expected U.S. mortgage originations reducing full year 2023 revenue at the midpoint to $5.300 billion. Adjusted EPS guidance revised downward to $6.98 per share at the midpoint from lower mortgage revenue.</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.9075016975402832</v>
+        <v>-7.605172157287598</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Revenue, Core growth, Aftermarket growth, Loan growth, Revenue Growth Acceleration, Revenue Growth Deceleration, Product Cycle / Upcoming Product Cycle, Credit portfolio performance, New store productivity, Organic growth, Premium growth</t>
+          <t>Earnings per Share / EPS, Market share, Units per transaction, Market share</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Financial metric - Insurance, Sector trend, Financial metric - Bank, Financial metric - All</t>
+          <t>Sector trend, Financial metric - All</t>
         </is>
       </c>
     </row>
@@ -670,16 +670,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-6.968724250793457</v>
+        <v>-1.368348836898804</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Recurring revenue</t>
+          <t>IT spending</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Financial metric - All</t>
+          <t>Financial metric - IT</t>
         </is>
       </c>
     </row>
@@ -690,16 +690,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-1.076490879058838</v>
+        <v>-0.9075016975402832</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Core growth, Recurring revenue, Aftermarket growth, Loan growth, Organic growth, Premium growth</t>
+          <t>Revenue, Revenue growth, Aftermarket growth, Loan growth, Revenue Growth , New store productivity, Organic growth, Premium growth</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Financial metric - Insurance, Sector trend, Financial metric - Bank, Financial metric - All</t>
+          <t>Sector trend, Financial metric - All, Financial metric - Bank, Financial metric - Insurance</t>
         </is>
       </c>
     </row>
@@ -710,56 +710,56 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-1.09935474395752</v>
+        <v>-6.968724250793457</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Core growth, Recurring revenue, Aftermarket growth, Loan growth, Organic growth, Premium growth</t>
+          <t>Recurring revenue</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Financial metric - Insurance, Sector trend, Financial metric - Bank, Financial metric - All</t>
+          <t>Financial metric - All</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>second largest credit bureau in Brazil, and we expect to close the strategic acquisition in early August. This merger will expand Equifax capabilities in the large and fast- growing Brazilian market and add to our diverse International portfolio, while giving Boa Vista Serviços access to our expansive global capabilities and cloud-native data, products, decisioning and analytical technology for the rapid development of new products and services, and expansion into new industries."</t>
+          <t>"Equifax had a solid second quarter against a continuing challenging mortgage market, with very good execution against our 2023 Cloud spending reduction plan. Revenue growth of 1% in constant currency was at about the midpoint of our guidance, with continued strong new product performance with a New Product Vitality Index of 14%, a record for Equifax. However, later in the quarter, we saw U.S. mortgage activity at levels below our expectations and slowing U.S. hiring activity, which impacted revenue particularly in Workforce Solutions. Workforce Solutions continued to substantially outperform the underlying mortgage and talent markets, and delivered very strong revenue growth in Government. USIS delivered a strong quarter, which included strong Online B2B non-mortgage growth of 9%, and International delivered constant currency revenue growth of 7%, which was above our expectations," said Mark W. Begor, CEO of Equifax.</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.03010058403015137</v>
+        <v>-1.076490879058838</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Hard market, Seasonal products</t>
+          <t>Revenue growth, Recurring revenue, Aftermarket growth, Loan growth, Organic growth, Premium growth</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Sector trend</t>
+          <t>Sector trend, Financial metric - All, Financial metric - Bank, Financial metric - Insurance</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>"We expect the weaker than expected U.S. mortgage market that we saw in June to continue, and we now expect full year mortgage originations to decline about 37%, which is down five percentage points from our prior framework. We also expect to see the slowing in U.S. hiring to continue throughout 2023, but expect to offset this impact on non-mortgage revenue with stronger growth in the Workforce Government business, as well as solid performance in USIS and International. As we look to our Full Year 2023 guidance, we are reducing our Revenue guidance to $5.300 billion at the midpoint reflecting the more negative impact of the weaker mortgage market and loss of high margin mortgage revenue. We are taking actions to realize additional Cloud spending reductions of $10 million in the second half. Our full year Adjusted EPS Guidance is now $6.98 at the midpoint, reflecting the impact of the lower mortgage revenue."</t>
+          <t>"Equifax had a solid second quarter against a continuing challenging mortgage market, with very good execution against our 2023 Cloud spending reduction plan. Revenue growth of 1% in constant currency was at about the midpoint of our guidance, with continued strong new product performance with a New Product Vitality Index of 14%, a record for Equifax. However, later in the quarter, we saw U.S. mortgage activity at levels below our expectations and slowing U.S. hiring activity, which impacted revenue particularly in Workforce Solutions. Workforce Solutions continued to substantially outperform the underlying mortgage and talent markets, and delivered very strong revenue growth in Government. USIS delivered a strong quarter, which included strong Online B2B non-mortgage growth of 9%, and International delivered constant currency revenue growth of 7%, which was above our expectations," said Mark W. Begor, CEO of Equifax.</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-7.575741291046143</v>
+        <v>-1.09935474395752</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2 year – 10 year spread, Hard market</t>
+          <t>Revenue growth, Recurring revenue, Aftermarket growth, Loan growth, Organic growth, Premium growth</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Sector trend, Macro</t>
+          <t>Sector trend, Financial metric - All, Financial metric - Bank, Financial metric - Insurance</t>
         </is>
       </c>
     </row>
@@ -774,12 +774,12 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Core growth, Recurring revenue, Aftermarket growth, Loan growth, Credit portfolio performance, Organic growth, Premium growth</t>
+          <t>Revenue growth, Recurring revenue, Aftermarket growth, Loan growth, Organic growth, Premium growth</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Financial metric - Insurance, Sector trend, Financial metric - Bank, Financial metric - All</t>
+          <t>Sector trend, Financial metric - All, Financial metric - Bank, Financial metric - Insurance</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Revenue, Gross margin, Contribution margin, Recurring revenue, Hard market, Revenue Growth Acceleration, Revenue Growth Deceleration</t>
+          <t xml:space="preserve">Revenue, Gross margin, Contribution margin, Revenue growth, Recurring revenue, Revenue Growth </t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -810,36 +810,36 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-5.923420429229736</v>
+        <v>1.220537662506104</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Earnings per Share / EPS, Guidance, 2 year – 10 year spread</t>
+          <t>IT spending</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Macro, Financial metric - All</t>
+          <t>Financial metric - IT</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>"We are confident in the future of the New Equifax as we move toward completion of our EFX Cloud and Data transformation, leverage our new Cloud capabilities to accelerate new product roll-outs that 'Only Equifax' can provide to drive future growth in 2023 and beyond. We are energized about the New Equifax and remain confident in our long-term 8-12% revenue growth framework that will deliver higher margins and free cash flow."</t>
+          <t>"We expect the weaker than expected U.S. mortgage market that we saw in June to continue, and we now expect full year mortgage originations to decline about 37%, which is down five percentage points from our prior framework. We also expect to see the slowing in U.S. hiring to continue throughout 2023, but expect to offset this impact on non-mortgage revenue with stronger growth in the Workforce Government business, as well as solid performance in USIS and International. As we look to our Full Year 2023 guidance, we are reducing our Revenue guidance to $5.300 billion at the midpoint reflecting the more negative impact of the weaker mortgage market and loss of high margin mortgage revenue. We are taking actions to realize additional Cloud spending reductions of $10 million in the second half. Our full year Adjusted EPS Guidance is now $6.98 at the midpoint, reflecting the impact of the lower mortgage revenue."</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.7291932106018066</v>
+        <v>-5.923420429229736</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Sales leverage, Core growth, Aftermarket growth, Loan growth, New store productivity, Organic growth, Premium growth</t>
+          <t>Earnings per Share / EPS, Guidance</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Financial metric - Insurance, Sector trend, Financial metric - Bank, Financial metric - All</t>
+          <t>Financial metric - All</t>
         </is>
       </c>
     </row>
@@ -850,91 +850,91 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-1.200044393539429</v>
+        <v>-0.7291932106018066</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Pre-tax margins, Operating margins, Incremental margins, Core growth, Recurring revenue, Aftermarket growth, Loan growth, New store productivity, Organic growth, Premium growth</t>
+          <t>Revenue growth, Aftermarket growth, Loan growth, New store productivity, Organic growth, Premium growth</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Financial metric - Insurance, Sector trend, Financial metric - Bank, Financial metric - All</t>
+          <t>Sector trend, Financial metric - All, Financial metric - Bank, Financial metric - Insurance</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>The company reported revenue of $1,317.6 million in the second quarter of 2023, flat compared to the second quarter of 2022 on a reported basis and up 1% on a local currency basis.</t>
+          <t>"We are confident in the future of the New Equifax as we move toward completion of our EFX Cloud and Data transformation, leverage our new Cloud capabilities to accelerate new product roll-outs that 'Only Equifax' can provide to drive future growth in 2023 and beyond. We are energized about the New Equifax and remain confident in our long-term 8-12% revenue growth framework that will deliver higher margins and free cash flow."</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-2.616408348083496</v>
+        <v>-1.200044393539429</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Recurring revenue, Yield Curve steep / flat / inverted</t>
+          <t>Pre-tax margins, Operating margins, Incremental margins, Revenue growth, Recurring revenue, Aftermarket growth, Loan growth, New store productivity, Organic growth, Premium growth</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Macro, Financial metric - All</t>
+          <t>Sector trend, Financial metric - All, Financial metric - Bank, Financial metric - Insurance</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Net income attributable to Equifax of $138.3 million was down 31% in the second quarter of 2023 compared to $200.6 million in the second quarter of 2022.</t>
+          <t>The company reported revenue of $1,317.6 million in the second quarter of 2023, flat compared to the second quarter of 2022 on a reported basis and up 1% on a local currency basis.</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-7.366633415222168</v>
+        <v>-2.616408348083496</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Net Asset Value / NAV, Net Interest Income, Net Charge Off, Net Interest Margin (NIM), Credit income</t>
+          <t>Recurring revenue</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Sector trend, Financial metric - Bank</t>
+          <t>Financial metric - All</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Diluted EPS attributable to Equifax was $ 1.12 for the second quarter of 2023, down 31% compared to $1.63 in the second quarter of 2022.</t>
+          <t>Net income attributable to Equifax of $138.3 million was down 31% in the second quarter of 2023 compared to $200.6 million in the second quarter of 2022.</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-7.292782783508301</v>
+        <v>-7.366633415222168</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Earnings per Share / EPS</t>
+          <t>Net Interest Income, Net Interest Margin (NIM)</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Financial metric - All</t>
+          <t>Financial metric - Bank</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Total revenue was $582.8 million in the second quarter of 2023, down 4% compared to the second quarter of 2022. Operating margin for Workforce Solutions was 42.0% in the second quarter of 2023 compared to 46.2% in the second quarter of 2022. Adjusted EBITDA margin for Workforce Solutions was 51.5% in the second quarter of 2023 compared to 53.4% in the second quarter of 2022.</t>
+          <t>Diluted EPS attributable to Equifax was $ 1.12 for the second quarter of 2023, down 31% compared to $1.63 in the second quarter of 2022.</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-7.132176399230957</v>
+        <v>-7.292782783508301</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Recurring revenue</t>
+          <t>Earnings per Share / EPS</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -950,11 +950,11 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>-8.334739685058594</v>
+        <v>-7.132176399230957</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Operating margins, Gross margin, Contribution margin</t>
+          <t>Recurring revenue</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -970,11 +970,11 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-8.143440246582031</v>
+        <v>-8.334739685058594</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Gross margin, Contribution margin</t>
+          <t>Operating Expenses, Operating margins, Gross margin, Contribution margin</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -986,15 +986,15 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Verification Services revenue was $474.0 million, down 6% compared to the second quarter of 2022.</t>
+          <t>Total revenue was $582.8 million in the second quarter of 2023, down 4% compared to the second quarter of 2022. Operating margin for Workforce Solutions was 42.0% in the second quarter of 2023 compared to 46.2% in the second quarter of 2022. Adjusted EBITDA margin for Workforce Solutions was 51.5% in the second quarter of 2023 compared to 53.4% in the second quarter of 2022.</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-6.987293243408203</v>
+        <v>-8.143440246582031</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Recurring revenue</t>
+          <t>Gross margin, Contribution margin</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1006,11 +1006,11 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Employer Services revenue was $108.8 million, up 4% compared to the second quarter of 2022.</t>
+          <t>Verification Services revenue was $474.0 million, down 6% compared to the second quarter of 2022.</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>-1.284570932388306</v>
+        <v>-6.987293243408203</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -1026,11 +1026,11 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Total revenue was $ 445.0 million in the second quarter of 2023, up 6% compared to $421.4 million in the second quarter of 2022. Operating margin for USIS was 23.1% in the second quarter of 2023 compared to 26.6% in the second quarter of 2022. Adjusted EBITDA margin for USIS was 36.0% in the second quarter of 2023 compared to 38.2% in the second quarter of 2022.</t>
+          <t>Employer Services revenue was $108.8 million, up 4% compared to the second quarter of 2022.</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>-1.604087352752686</v>
+        <v>-1.284570932388306</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -1050,11 +1050,11 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-7.706118583679199</v>
+        <v>-1.604087352752686</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Operating margins, Gross margin, Contribution margin</t>
+          <t>Recurring revenue</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1070,11 +1070,11 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>-8.119026184082031</v>
+        <v>-7.706118583679199</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Gross margin, Contribution margin</t>
+          <t>Operating Expenses, Operating margins, Gross margin, Contribution margin</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1086,15 +1086,15 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Online Information Solutions revenue was $358.6 million, up 9% compared to the second quarter of 2022.</t>
+          <t>Total revenue was $ 445.0 million in the second quarter of 2023, up 6% compared to $421.4 million in the second quarter of 2022. Operating margin for USIS was 23.1% in the second quarter of 2023 compared to 26.6% in the second quarter of 2022. Adjusted EBITDA margin for USIS was 36.0% in the second quarter of 2023 compared to 38.2% in the second quarter of 2022.</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>-1.261420488357544</v>
+        <v>-8.119026184082031</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Recurring revenue</t>
+          <t>Gross margin, Contribution margin</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1106,51 +1106,51 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Mortgage Solutions revenue was $30.3 million, down 18% compared to the second quarter of 2022.</t>
+          <t>Online Information Solutions revenue was $358.6 million, up 9% compared to the second quarter of 2022.</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-6.993020534515381</v>
+        <v>-1.261420488357544</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Recurring revenue, Mortgage Fees</t>
+          <t>Recurring revenue</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Financial metric - Bank, Financial metric - All</t>
+          <t>Financial metric - All</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Financial Marketing Services revenue was $56.1 million, up 1% compared to the second quarter of 2022.</t>
+          <t>Mortgage Solutions revenue was $30.3 million, down 18% compared to the second quarter of 2022.</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>-1.300807952880859</v>
+        <v>-6.993020534515381</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Recurring revenue</t>
+          <t>Recurring revenue, Mortgage Fees</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Financial metric - All</t>
+          <t>Financial metric - All, Financial metric - Bank</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Total revenue was $289.8 million in the second quarter of 2023, up 1% and 7% compared to the second quarter of 2022 on a reported and local currency basis, respectively. Operating margin for International was 11.9% in the second quarter of 2023, compared to 11.3% in the second quarter of 2022. Adjusted EBITDA margin for International was 24.2% in the second quarter of 2023, compared to 24.7% in the second quarter of 2022.</t>
+          <t>Financial Marketing Services revenue was $56.1 million, up 1% compared to the second quarter of 2022.</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>-1.438451051712036</v>
+        <v>-1.300807952880859</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -1170,11 +1170,11 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>-6.47248649597168</v>
+        <v>-1.438451051712036</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Operating margins, Gross margin, Contribution margin</t>
+          <t>Recurring revenue</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1190,11 +1190,11 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>-7.841061592102051</v>
+        <v>-6.47248649597168</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Gross margin, Contribution margin</t>
+          <t>Operating Expenses, Operating margins, Gross margin, Contribution margin</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1206,15 +1206,15 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Asia Pacific revenue was $87.7 million, down 3% and up 4% compared to the second quarter of 2022 on a reported and local currency basis, respectively.</t>
+          <t>Total revenue was $289.8 million in the second quarter of 2023, up 1% and 7% compared to the second quarter of 2022 on a reported and local currency basis, respectively. Operating margin for International was 11.9% in the second quarter of 2023, compared to 11.3% in the second quarter of 2022. Adjusted EBITDA margin for International was 24.2% in the second quarter of 2023, compared to 24.7% in the second quarter of 2022.</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>-7.573707580566406</v>
+        <v>-7.841061592102051</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Recurring revenue</t>
+          <t>Gross margin, Contribution margin</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1226,11 +1226,11 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Europe revenue was $78.7 million, down 1% and 2% compared to the second quarter of 2022 on a reported and local currency basis, respectively.</t>
+          <t>Asia Pacific revenue was $87.7 million, down 3% and up 4% compared to the second quarter of 2022 on a reported and local currency basis, respectively.</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>-6.748132228851318</v>
+        <v>-7.573707580566406</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -1246,11 +1246,11 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Canada revenue was $66.5 million, up 4% and 8% compared to the second quarter of 2022 on a reported and local currency basis, respectively.</t>
+          <t>Europe revenue was $78.7 million, down 1% and 2% compared to the second quarter of 2022 on a reported and local currency basis, respectively.</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>-1.263078451156616</v>
+        <v>-6.748132228851318</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -1266,11 +1266,11 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Latin America revenue was $56.9 million, up 9% and 23% compared to the second quarter of 2022 on a reported and local currency basis, respectively.</t>
+          <t>Canada revenue was $66.5 million, up 4% and 8% compared to the second quarter of 2022 on a reported and local currency basis, respectively.</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>-1.267749786376953</v>
+        <v>-1.263078451156616</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -1286,55 +1286,55 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Adjusted EPS and Adjusted EBITDA Margin</t>
+          <t>Latin America revenue was $56.9 million, up 9% and 23% compared to the second quarter of 2022 on a reported and local currency basis, respectively.</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>8.244378089904785</v>
+        <v>-1.267749786376953</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Earnings per Share / EPS, Transaction Margin, Net Interest Margin (NIM), Margin improvement, Margin Expansion</t>
+          <t>Recurring revenue</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Sector trend, Financial metric - Bank, Financial metric - All</t>
+          <t>Financial metric - All</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Adjusted EPS attributable to Equifax was $1.71 in the second quarter of 2023, down 18% compared to the second quarter of 2022.</t>
+          <t>Adjusted EPS and Adjusted EBITDA Margin</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>-7.352518081665039</v>
+        <v>8.244378089904785</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Earnings per Share / EPS</t>
+          <t>Earnings per Share / EPS, Net Interest Margin (NIM), Margin improvement, Margin Expansion</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Financial metric - All</t>
+          <t>Sector trend, Financial metric - All, Financial metric - Bank</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Adjusted EBITDA margin was 32.7% in the second quarter of 2023 compared to 35.0% in the second quarter of 2022.</t>
+          <t>Adjusted EPS attributable to Equifax was $1.71 in the second quarter of 2023, down 18% compared to the second quarter of 2022.</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>-7.666535377502441</v>
+        <v>-7.352518081665039</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Gross margin, Contribution margin</t>
+          <t>Earnings per Share / EPS</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1346,20 +1346,20 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Third quarter and full year guidance excludes Boa Vista Serviços results.</t>
+          <t>Adjusted EBITDA margin was 32.7% in the second quarter of 2023 compared to 35.0% in the second quarter of 2022.</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>9.458095550537109</v>
+        <v>-7.666535377502441</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>2 year – 10 year spread</t>
+          <t>Gross margin, Contribution margin</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Macro</t>
+          <t>Financial metric - All</t>
         </is>
       </c>
     </row>
@@ -1394,12 +1394,12 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Earnings per Share / EPS, Collateral value, Distribution costs, Buying costs, Credit income, Risk adjustment</t>
+          <t>Earnings per Share / EPS, Collateral value, Distribution costs</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Sector trend, Financial metric - Bank, Financial metric - All</t>
+          <t>Sector trend, Financial metric - All, Financial metric - Bank</t>
         </is>
       </c>
     </row>
@@ -1414,12 +1414,12 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Gross margin, Contribution margin, ECB interest rate, Credit income</t>
+          <t>Gross margin, Contribution margin</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Sector trend, Regulation, Financial metric - All</t>
+          <t>Financial metric - All</t>
         </is>
       </c>
     </row>
@@ -1434,12 +1434,12 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Earnings per Share / EPS, Credit income</t>
+          <t>Earnings per Share / EPS</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Sector trend, Financial metric - All</t>
+          <t>Financial metric - All</t>
         </is>
       </c>
     </row>
@@ -1454,12 +1454,12 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Interest rates, Order rates, Terms and conditions</t>
+          <t>Order rates</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Sector trend, Macro, Financial metric - Insurance</t>
+          <t>Sector trend</t>
         </is>
       </c>
     </row>
@@ -1470,11 +1470,11 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>9.013272285461426</v>
+        <v>-3.478864669799805</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Hard market</t>
+          <t>Order rates</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -1490,16 +1490,16 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>-3.478864669799805</v>
+        <v>-7.285895347595215</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Interest rates, ECB interest rate, Seasonal products, Order rates, Terms and conditions</t>
+          <t>Interest rate, Price increases</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Sector trend, Macro, Regulation, Financial metric - Insurance</t>
+          <t>Sector trend, Macro</t>
         </is>
       </c>
     </row>
@@ -1510,16 +1510,16 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>-7.285895347595215</v>
+        <v>4.192033767700195</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>ECB interest rate, Seasonal products, Price increases, Terms and conditions</t>
+          <t>Climate risk, Same Store sales , Order rates</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Financial metric - Insurance, Sector trend, Regulation</t>
+          <t>Sector trend, Macro</t>
         </is>
       </c>
     </row>
@@ -1530,91 +1530,91 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>-5.885262489318848</v>
+        <v>8.944835662841797</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Green financing</t>
+          <t>Credit cost, Regulation, Fuel cost, Order rates, Regulation</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Financial metric - Bank</t>
+          <t>Sector trend, Regulation, Macro, Financial metric - Bank</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Several factors could cause actual results to differ materially from those expressed or implied in the forward- looking statements, including, but not limited to, actions taken by us, including restructuring or strategic initiatives (including our technology, data and security cloud transformation, capital investments and asset acquisitions or dispositions), as well as developments beyond our control, including, but not limited to, changes in the U.S. mortgage market environment, as well as changes more generally in U.S. and worldwide economic conditions that materially impact consumer spending, such as rising interest rates and inflation, consumer debt and employment and the demand for Equifax's products and services. Further deteriorations in economic conditions or interest rate increases could lead to a further or prolonged decline in demand for our products and services and negatively impact our business. It may also continue to impact financial markets and corporate credit markets which could adversely impact our access to financing or the terms of any financing. Other risk factors include the impact of our technology and security transformation and improvements in our information technology and data security infrastructure; changes in tax regulations; adverse or uncertain economic conditions and changes in credit and financial markets, such as rising interest rates and inflation; potential adverse developments in new and pending legal proceedings or government investigations; risks associated with our ability to comply with business practice commitments and similar obligations under settlement agreements and consent orders entered into in connection with the 2017 cybersecurity incident; economic, political and other risks associated with international sales and operations; risks relating to unauthorized access to data or breaches of confidential information due to criminal conduct, attacks by hackers, employee or insider malfeasance and/or human error; changes in, and the effects of, laws and regulations and government policies governing or affecting our business, including, without limitation, our examination and supervision by the Consumer Financial Protection Bureau, a federal agency that holds primary responsibility for the regulation of consumer protection with respect to financial products and services in the U.S., oversight by the U.K. Financial Conduct Authority and Information Commissioner's Office of our debt collections services and core credit reporting businesses in the U.K., oversight by the Office of Australian Information Commission, the Australian Competition and Consumer Commission and other regulatory entities of our credit reporting business in Australia and the impact of current privacy laws and regulations, including the European General Data Protection Regulation and the California Consumer Privacy Act, or any future privacy laws and regulations; federal or state responses to identity theft concerns; our ability to successfully develop and market new products and services, respond to pricing and other competitive pressures, complete and integrate acquisitions and other investments and achieve targeted cost efficiencies; timing and amount of capital expenditures; changes in capital markets and corresponding effects on the Company's investments and benefit plan obligations; foreign currency exchange rates and earnings repatriation limitations; and the decisions of taxing authorities which could affect our effective tax rates. A summary of additional risks and uncertainties can be found in our Annual Report on Form 10-K for the year ended December 31, 2022 including without limitation under the captions "Item 1. Business -- Governmental Regulation" and "-- Forward -Looking Statements" and "Item 1A. Risk Factors" and in our other filings with the U.S. Securities and Exchange Commission. Forward-looking statements are given only as at the date of this</t>
+          <t>Operating activities:</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>4.192033767700195</v>
+        <v>9.566032409667969</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Climate risk, Interest rates, ECB interest rate, Peak regulation, Seasonal products, Same store sales comps, Same Store sales, Order rates, Terms and conditions</t>
+          <t>Operating Expenses, Operating margins</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Sector trend, Macro, Regulation, Financial metric - Insurance</t>
+          <t>Financial metric - All</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Several factors could cause actual results to differ materially from those expressed or implied in the forward- looking statements, including, but not limited to, actions taken by us, including restructuring or strategic initiatives (including our technology, data and security cloud transformation, capital investments and asset acquisitions or dispositions), as well as developments beyond our control, including, but not limited to, changes in the U.S. mortgage market environment, as well as changes more generally in U.S. and worldwide economic conditions that materially impact consumer spending, such as rising interest rates and inflation, consumer debt and employment and the demand for Equifax's products and services. Further deteriorations in economic conditions or interest rate increases could lead to a further or prolonged decline in demand for our products and services and negatively impact our business. It may also continue to impact financial markets and corporate credit markets which could adversely impact our access to financing or the terms of any financing. Other risk factors include the impact of our technology and security transformation and improvements in our information technology and data security infrastructure; changes in tax regulations; adverse or uncertain economic conditions and changes in credit and financial markets, such as rising interest rates and inflation; potential adverse developments in new and pending legal proceedings or government investigations; risks associated with our ability to comply with business practice commitments and similar obligations under settlement agreements and consent orders entered into in connection with the 2017 cybersecurity incident; economic, political and other risks associated with international sales and operations; risks relating to unauthorized access to data or breaches of confidential information due to criminal conduct, attacks by hackers, employee or insider malfeasance and/or human error; changes in, and the effects of, laws and regulations and government policies governing or affecting our business, including, without limitation, our examination and supervision by the Consumer Financial Protection Bureau, a federal agency that holds primary responsibility for the regulation of consumer protection with respect to financial products and services in the U.S., oversight by the U.K. Financial Conduct Authority and Information Commissioner's Office of our debt collections services and core credit reporting businesses in the U.K., oversight by the Office of Australian Information Commission, the Australian Competition and Consumer Commission and other regulatory entities of our credit reporting business in Australia and the impact of current privacy laws and regulations, including the European General Data Protection Regulation and the California Consumer Privacy Act, or any future privacy laws and regulations; federal or state responses to identity theft concerns; our ability to successfully develop and market new products and services, respond to pricing and other competitive pressures, complete and integrate acquisitions and other investments and achieve targeted cost efficiencies; timing and amount of capital expenditures; changes in capital markets and corresponding effects on the Company's investments and benefit plan obligations; foreign currency exchange rates and earnings repatriation limitations; and the decisions of taxing authorities which could affect our effective tax rates. A summary of additional risks and uncertainties can be found in our Annual Report on Form 10-K for the year ended December 31, 2022 including without limitation under the captions "Item 1. Business -- Governmental Regulation" and "-- Forward -Looking Statements" and "Item 1A. Risk Factors" and in our other filings with the U.S. Securities and Exchange Commission. Forward-looking statements are given only as at the date of this</t>
+          <t>Stock-based compensation expense</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>8.944835662841797</v>
+        <v>9.348362922668457</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Credit cost, Regulation, Interest rates, Regulation, Regulation, Hard market, Seasonal products, Fuel cost, Order rates, Price cost spread</t>
+          <t>Incentive compensation</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Sector trend, Macro, Financial metric - Bank, Regulation</t>
+          <t>Financial metric - All</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Several factors could cause actual results to differ materially from those expressed or implied in the forward- looking statements, including, but not limited to, actions taken by us, including restructuring or strategic initiatives (including our technology, data and security cloud transformation, capital investments and asset acquisitions or dispositions), as well as developments beyond our control, including, but not limited to, changes in the U.S. mortgage market environment, as well as changes more generally in U.S. and worldwide economic conditions that materially impact consumer spending, such as rising interest rates and inflation, consumer debt and employment and the demand for Equifax's products and services. Further deteriorations in economic conditions or interest rate increases could lead to a further or prolonged decline in demand for our products and services and negatively impact our business. It may also continue to impact financial markets and corporate credit markets which could adversely impact our access to financing or the terms of any financing. Other risk factors include the impact of our technology and security transformation and improvements in our information technology and data security infrastructure; changes in tax regulations; adverse or uncertain economic conditions and changes in credit and financial markets, such as rising interest rates and inflation; potential adverse developments in new and pending legal proceedings or government investigations; risks associated with our ability to comply with business practice commitments and similar obligations under settlement agreements and consent orders entered into in connection with the 2017 cybersecurity incident; economic, political and other risks associated with international sales and operations; risks relating to unauthorized access to data or breaches of confidential information due to criminal conduct, attacks by hackers, employee or insider malfeasance and/or human error; changes in, and the effects of, laws and regulations and government policies governing or affecting our business, including, without limitation, our examination and supervision by the Consumer Financial Protection Bureau, a federal agency that holds primary responsibility for the regulation of consumer protection with respect to financial products and services in the U.S., oversight by the U.K. Financial Conduct Authority and Information Commissioner's Office of our debt collections services and core credit reporting businesses in the U.K., oversight by the Office of Australian Information Commission, the Australian Competition and Consumer Commission and other regulatory entities of our credit reporting business in Australia and the impact of current privacy laws and regulations, including the European General Data Protection Regulation and the California Consumer Privacy Act, or any future privacy laws and regulations; federal or state responses to identity theft concerns; our ability to successfully develop and market new products and services, respond to pricing and other competitive pressures, complete and integrate acquisitions and other investments and achieve targeted cost efficiencies; timing and amount of capital expenditures; changes in capital markets and corresponding effects on the Company's investments and benefit plan obligations; foreign currency exchange rates and earnings repatriation limitations; and the decisions of taxing authorities which could affect our effective tax rates. A summary of additional risks and uncertainties can be found in our Annual Report on Form 10-K for the year ended December 31, 2022 including without limitation under the captions "Item 1. Business -- Governmental Regulation" and "-- Forward -Looking Statements" and "Item 1A. Risk Factors" and in our other filings with the U.S. Securities and Exchange Commission. Forward-looking statements are given only as at the date of this</t>
+          <t>Gain on fair market value adjustment and gain on sale of equity investments</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>8.931619644165039</v>
+        <v>1.014253377914429</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>2 year – 10 year spread</t>
+          <t>Collateral value</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Macro</t>
+          <t>Financial metric - Bank</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Several factors could cause actual results to differ materially from those expressed or implied in the forward- looking statements, including, but not limited to, actions taken by us, including restructuring or strategic initiatives (including our technology, data and security cloud transformation, capital investments and asset acquisitions or dispositions), as well as developments beyond our control, including, but not limited to, changes in the U.S. mortgage market environment, as well as changes more generally in U.S. and worldwide economic conditions that materially impact consumer spending, such as rising interest rates and inflation, consumer debt and employment and the demand for Equifax's products and services. Further deteriorations in economic conditions or interest rate increases could lead to a further or prolonged decline in demand for our products and services and negatively impact our business. It may also continue to impact financial markets and corporate credit markets which could adversely impact our access to financing or the terms of any financing. Other risk factors include the impact of our technology and security transformation and improvements in our information technology and data security infrastructure; changes in tax regulations; adverse or uncertain economic conditions and changes in credit and financial markets, such as rising interest rates and inflation; potential adverse developments in new and pending legal proceedings or government investigations; risks associated with our ability to comply with business practice commitments and similar obligations under settlement agreements and consent orders entered into in connection with the 2017 cybersecurity incident; economic, political and other risks associated with international sales and operations; risks relating to unauthorized access to data or breaches of confidential information due to criminal conduct, attacks by hackers, employee or insider malfeasance and/or human error; changes in, and the effects of, laws and regulations and government policies governing or affecting our business, including, without limitation, our examination and supervision by the Consumer Financial Protection Bureau, a federal agency that holds primary responsibility for the regulation of consumer protection with respect to financial products and services in the U.S., oversight by the U.K. Financial Conduct Authority and Information Commissioner's Office of our debt collections services and core credit reporting businesses in the U.K., oversight by the Office of Australian Information Commission, the Australian Competition and Consumer Commission and other regulatory entities of our credit reporting business in Australia and the impact of current privacy laws and regulations, including the European General Data Protection Regulation and the California Consumer Privacy Act, or any future privacy laws and regulations; federal or state responses to identity theft concerns; our ability to successfully develop and market new products and services, respond to pricing and other competitive pressures, complete and integrate acquisitions and other investments and achieve targeted cost efficiencies; timing and amount of capital expenditures; changes in capital markets and corresponding effects on the Company's investments and benefit plan obligations; foreign currency exchange rates and earnings repatriation limitations; and the decisions of taxing authorities which could affect our effective tax rates. A summary of additional risks and uncertainties can be found in our Annual Report on Form 10-K for the year ended December 31, 2022 including without limitation under the captions "Item 1. Business -- Governmental Regulation" and "-- Forward -Looking Statements" and "Item 1A. Risk Factors" and in our other filings with the U.S. Securities and Exchange Commission. Forward-looking statements are given only as at the date of this</t>
+          <t>Cash provided by operating activities</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>9.342348098754883</v>
+        <v>9.502907752990723</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Risk adjustment</t>
+          <t>Promotional activities</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -1626,735 +1626,735 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Several factors could cause actual results to differ materially from those expressed or implied in the forward- looking statements, including, but not limited to, actions taken by us, including restructuring or strategic initiatives (including our technology, data and security cloud transformation, capital investments and asset acquisitions or dispositions), as well as developments beyond our control, including, but not limited to, changes in the U.S. mortgage market environment, as well as changes more generally in U.S. and worldwide economic conditions that materially impact consumer spending, such as rising interest rates and inflation, consumer debt and employment and the demand for Equifax's products and services. Further deteriorations in economic conditions or interest rate increases could lead to a further or prolonged decline in demand for our products and services and negatively impact our business. It may also continue to impact financial markets and corporate credit markets which could adversely impact our access to financing or the terms of any financing. Other risk factors include the impact of our technology and security transformation and improvements in our information technology and data security infrastructure; changes in tax regulations; adverse or uncertain economic conditions and changes in credit and financial markets, such as rising interest rates and inflation; potential adverse developments in new and pending legal proceedings or government investigations; risks associated with our ability to comply with business practice commitments and similar obligations under settlement agreements and consent orders entered into in connection with the 2017 cybersecurity incident; economic, political and other risks associated with international sales and operations; risks relating to unauthorized access to data or breaches of confidential information due to criminal conduct, attacks by hackers, employee or insider malfeasance and/or human error; changes in, and the effects of, laws and regulations and government policies governing or affecting our business, including, without limitation, our examination and supervision by the Consumer Financial Protection Bureau, a federal agency that holds primary responsibility for the regulation of consumer protection with respect to financial products and services in the U.S., oversight by the U.K. Financial Conduct Authority and Information Commissioner's Office of our debt collections services and core credit reporting businesses in the U.K., oversight by the Office of Australian Information Commission, the Australian Competition and Consumer Commission and other regulatory entities of our credit reporting business in Australia and the impact of current privacy laws and regulations, including the European General Data Protection Regulation and the California Consumer Privacy Act, or any future privacy laws and regulations; federal or state responses to identity theft concerns; our ability to successfully develop and market new products and services, respond to pricing and other competitive pressures, complete and integrate acquisitions and other investments and achieve targeted cost efficiencies; timing and amount of capital expenditures; changes in capital markets and corresponding effects on the Company's investments and benefit plan obligations; foreign currency exchange rates and earnings repatriation limitations; and the decisions of taxing authorities which could affect our effective tax rates. A summary of additional risks and uncertainties can be found in our Annual Report on Form 10-K for the year ended December 31, 2022 including without limitation under the captions "Item 1. Business -- Governmental Regulation" and "-- Forward -Looking Statements" and "Item 1A. Risk Factors" and in our other filings with the U.S. Securities and Exchange Commission. Forward-looking statements are given only as at the date of this</t>
+          <t>Capital expenditures</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>9.425971984863281</v>
+        <v>9.56110954284668</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Exchange Volume / Trading Volume</t>
+          <t>Capital Requirements</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Financial metric - Bank</t>
+          <t>Macro</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Operating activities:</t>
+          <t>Cash used in investing activities</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>9.566032409667969</v>
+        <v>9.598879814147949</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Operating margins</t>
+          <t>Promotional activities</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Financial metric - All</t>
+          <t>Sector trend</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Consolidated net income</t>
+          <t>Net short-term borrowings</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>9.571161270141602</v>
+        <v>9.339049339294434</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Credit income</t>
+          <t>Net Interest Income, Net Interest Margin (NIM)</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Sector trend</t>
+          <t>Financial metric - Bank</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Adjustments to reconcile consolidated net income to net cash provided by operating activities:</t>
+          <t>Dividends paid to Equifax shareholders</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>8.782445907592773</v>
+        <v>9.525489807128906</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Credit income</t>
+          <t>Dividends</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Sector trend</t>
+          <t>Financial metric - All</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Stock-based compensation expense</t>
+          <t>Dividends paid to noncontrolling interests</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>9.348362922668457</v>
+        <v>9.560897827148438</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Incentive compensation, Logistics expense</t>
+          <t>Dividends</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Sector trend, Financial metric - All</t>
+          <t>Financial metric - All</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Deferred income taxes</t>
+          <t>Debt issuance costs</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>9.015305519104004</v>
+        <v>9.389931678771973</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Bank taxes, Credit income</t>
+          <t>Distribution costs</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Sector trend, Financial metric - Bank</t>
+          <t>Sector trend</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Gain on fair market value adjustment and gain on sale of equity investments</t>
+          <t>Cash (used in) provided by financing activities</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>1.014253377914429</v>
+        <v>9.579429626464844</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Collateral value, Hard market, Risk adjustment</t>
+          <t>Promotional activities</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Sector trend, Financial metric - Bank</t>
+          <t>Sector trend</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Changes in assets and liabilities, excluding effects of acquisitions:</t>
+          <t>Effect of foreign currency exchange rates on cash and cash equivalents Decrease in cash and cash equivalents</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>9.365899085998535</v>
+        <v>-3.533984184265137</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Risk-weighted assets / Risk-weightings</t>
+          <t>Order rates</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Financial metric - Bank</t>
+          <t>Sector trend</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Cash provided by operating activities</t>
+          <t>1. Can you provide a further analysis of operating revenue by operating segment?</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>9.502907752990723</v>
+        <v>9.428127288818359</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Promotional activities</t>
+          <t>Recurring revenue</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Sector trend</t>
+          <t>Financial metric - All</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Capital expenditures</t>
+          <t>Operating revenue consists of the following components:</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>9.56110954284668</v>
+        <v>9.342753410339355</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Capital Return, Capital Requirements / Common Equity Tier 1 Capital / Leverage Ratio / Tier 1 Leverage Ratio, Capital buffer</t>
+          <t>Operating Expenses, Operating margins, Recurring revenue</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Financial metric - Insurance, Macro, Financial metric - All</t>
+          <t>Financial metric - All</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Cash used in investing activities</t>
+          <t>Local currency revenue change is calculated by conforming 2023 results using 2022 exchange rates.</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>9.598879814147949</v>
+        <v>9.568716049194336</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Promotional activities</t>
+          <t>Recurring revenue</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Sector trend</t>
+          <t>Financial metric - All</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Net short-term borrowings</t>
+          <t>Organic local currency revenue growth is defined as local currency revenue growth, adjusted to reflect an increase in prior year Equifax revenue from the revenue of acquired companies in the prior year period. This adjustment is made for 12 months following the acquisition.</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>9.339049339294434</v>
+        <v>-0.8470168113708496</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Net Asset Value / NAV, Net Interest Income, Net Charge Off, Net Interest Margin (NIM)</t>
+          <t>Revenue growth, Recurring revenue, Aftermarket growth, Loan growth, Wage increase, Supplier price increase, Organic growth, Premium growth</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Financial metric - Bank</t>
+          <t>Sector trend, Financial metric - All, Financial metric - Bank, Financial metric - Insurance</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Dividends paid to Equifax shareholders</t>
+          <t>What is the estimate of the change in overall U.S. Mortgage Market credit inquiry volume that is included in the 2023 third quarter and full year guidance provided?</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>9.525489807128906</v>
+        <v>9.640722274780273</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Dividends, Preferred Dividends</t>
+          <t>Mortgage Fees, Market share, Market share</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Financial metric - All</t>
+          <t>Sector trend, Financial metric - Bank</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Dividends paid to noncontrolling interests</t>
+          <t>The change year over year in total U.S. mortgage credit inquiries received by Equifax in the second quarter of 2023 was a decline of 33%. The guidance provided on page 3 assumes a change year over year in total U.S. Mortgage Market Credit inquiries received by Equifax in the third quarter of 2023 to be a decline of about 23%. For full year 2023, our guidance assumes a decline of about 31%.</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>9.560897827148438</v>
+        <v>-7.210007667541504</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Dividends, Preferred Dividends</t>
+          <t>Mortgage Fees, Credit cost, Market share, Credit card balance, Market share</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Financial metric - All</t>
+          <t>Sector trend, Financial metric - Bank</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Payment of taxes related to settlement of equity awards</t>
+          <t>(Dollars in millions, except per share amounts)</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>9.489163398742676</v>
+        <v>9.524150848388672</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Bank taxes</t>
+          <t>Earnings per Share / EPS, Market share, Units per transaction, Market share</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Financial metric - Bank</t>
+          <t>Sector trend, Financial metric - All</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Debt issuance costs</t>
+          <t>Reconciliation of net income attributable to Equifax to diluted EPS attributable to Equifax, defined as net income adjusted for acquisition-related amortization expense, legal expenses related to the 2017 cybersecurity incident, fair value adjustment and gain on sale of equity investments, foreign currency impact of certain intercompany loans, acquisition-related costs other than acquisition amortization, income tax effect of stock awards recognized upon vesting or settlement, Argentina highly inflationary foreign currency adjustment, realignment of resources and other costs and income tax adjustments:</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>9.389931678771973</v>
+        <v>8.696756362915039</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Distribution costs, Buying costs</t>
+          <t>Earnings per Share / EPS, Collateral value, Distribution costs</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Sector trend</t>
+          <t>Sector trend, Financial metric - All, Financial metric - Bank</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Cash (used in) provided by financing activities</t>
+          <t>(In millions, except per share amounts)</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>9.579429626464844</v>
+        <v>9.507228851318359</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Green financing, Promotional activities</t>
+          <t>Earnings per Share / EPS, Market share, Units per transaction, Market share</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Sector trend, Financial metric - Bank</t>
+          <t>Sector trend, Financial metric - All</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Effect of foreign currency exchange rates on cash and cash equivalents Decrease in cash and cash equivalents</t>
+          <t>Net income attributable to Equifax</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>-3.533984184265137</v>
+        <v>9.466198921203613</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Interest rates, Order rates</t>
+          <t>Net Interest Income, Net Interest Margin (NIM)</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Sector trend, Macro</t>
+          <t>Financial metric - Bank</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Common Questions &amp; Answers (Unaudited)</t>
+          <t>Fair market value adjustment and gain on sale of equity investments (3)</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>9.504463195800781</v>
+        <v>7.458470344543457</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Capital Requirements / Common Equity Tier 1 Capital / Leverage Ratio / Tier 1 Leverage Ratio</t>
+          <t>Collateral value</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Macro</t>
+          <t>Financial metric - Bank</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>1. Can you provide a further analysis of operating revenue by operating segment?</t>
+          <t>Foreign currency impact of certain intercompany loans (4)</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>9.428127288818359</v>
+        <v>9.50306224822998</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Recurring revenue</t>
+          <t>Non-performing loans</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Financial metric - All</t>
+          <t>Financial metric - Bank</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Operating revenue consists of the following components:</t>
+          <t>Acquisition-related costs other than acquisition amortization (5) Income tax effects of stock awards that are recognized upon vesting or settlement (6)</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>9.342753410339355</v>
+        <v>9.464044570922852</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Operating margins, Recurring revenue</t>
+          <t>Net Interest Income, Distribution costs</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Financial metric - All</t>
+          <t>Sector trend, Financial metric - Bank</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Local currency revenue change is calculated by conforming 2023 results using 2022 exchange rates.</t>
+          <t>Realignment of resources and other costs (8)</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>9.568716049194336</v>
+        <v>9.519355773925781</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Recurring revenue</t>
+          <t>Distribution costs</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Financial metric - All</t>
+          <t>Sector trend</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Organic local currency revenue growth is defined as local currency revenue growth, adjusted to reflect an increase in prior year Equifax revenue from the revenue of acquired companies in the prior year period. This adjustment is made for 12 months following the acquisition.</t>
+          <t>Net income attributable to Equifax, adjusted for items listed above</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>-0.8470168113708496</v>
+        <v>9.419528961181641</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Core growth, Recurring revenue, Aftermarket growth, Loan growth, 2 year – 10 year spread, Wage increase, Supplier price increase, Organic growth, Premium growth</t>
+          <t>Net Interest Income, Net Interest Margin (NIM)</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Macro, Financial metric - All, Financial metric - Bank, Financial metric - Insurance, Sector trend</t>
+          <t>Financial metric - Bank</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Organic local currency revenue growth is defined as local currency revenue growth, adjusted to reflect an increase in prior year Equifax revenue from the revenue of acquired companies in the prior year period. This adjustment is made for 12 months following the acquisition.</t>
+          <t>Diluted EPS attributable to Equifax, adjusted for the items listed above Weighted-average shares used in computing diluted EPS</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>9.472862243652344</v>
+        <v>9.363529205322266</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Risk adjustment</t>
+          <t>Earnings per Share / EPS</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Sector trend</t>
+          <t>Financial metric - All</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>What is the estimate of the change in overall U.S. Mortgage Market credit inquiry volume that is included in the 2023 third quarter and full year guidance provided?</t>
+          <t>During the second quarter of 2023, we recorded an unrealized gain on the fair market value adjustment and gain on sale of equity investments of $10.5 million ($6.8 million, net of tax). During the second quarter of 2022, we recorded an unrealized loss on the fair market value adjustment and gain on sale of equity investments of $6.7 million ($5.7 million, net of tax). The fair value adjustments were recorded to the Other income, net line item within the Consolidated Statements of Income. See the Notes to this reconciliation for additional details.</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>9.640722274780273</v>
+        <v>-0.9175643920898438</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Mortgage Fees, Market Fees, 2 year – 10 year spread, Market share, Market share</t>
+          <t>Collateral value</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Sector trend, Macro, Financial metric - Bank</t>
+          <t>Financial metric - Bank</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>The change year over year in total U.S. mortgage credit inquiries received by Equifax in the second quarter of 2023 was a decline of 33%. The guidance provided on page 3 assumes a change year over year in total U.S. Mortgage Market Credit inquiries received by Equifax in the third quarter of 2023 to be a decline of about 23%. For full year 2023, our guidance assumes a decline of about 31%.</t>
+          <t>During the second quarter of 2023, we recorded an unrealized gain on the fair market value adjustment and gain on sale of equity investments of $10.5 million ($6.8 million, net of tax). During the second quarter of 2022, we recorded an unrealized loss on the fair market value adjustment and gain on sale of equity investments of $6.7 million ($5.7 million, net of tax). The fair value adjustments were recorded to the Other income, net line item within the Consolidated Statements of Income. See the Notes to this reconciliation for additional details.</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>9.540085792541504</v>
+        <v>-7.213561534881592</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>2 year – 10 year spread</t>
+          <t>Collateral value</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Macro</t>
+          <t>Financial metric - Bank</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>The change year over year in total U.S. mortgage credit inquiries received by Equifax in the second quarter of 2023 was a decline of 33%. The guidance provided on page 3 assumes a change year over year in total U.S. Mortgage Market Credit inquiries received by Equifax in the third quarter of 2023 to be a decline of about 23%. For full year 2023, our guidance assumes a decline of about 31%.</t>
+          <t>During the second quarter of 2023, we recorded an unrealized gain on the fair market value adjustment and gain on sale of equity investments of $10.5 million ($6.8 million, net of tax). During the second quarter of 2022, we recorded an unrealized loss on the fair market value adjustment and gain on sale of equity investments of $6.7 million ($5.7 million, net of tax). The fair value adjustments were recorded to the Other income, net line item within the Consolidated Statements of Income. See the Notes to this reconciliation for additional details.</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>9.52836799621582</v>
+        <v>9.423862457275391</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>2 year – 10 year spread</t>
+          <t>Net Interest Income, Collateral value</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Macro</t>
+          <t>Financial metric - Bank</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>The change year over year in total U.S. mortgage credit inquiries received by Equifax in the second quarter of 2023 was a decline of 33%. The guidance provided on page 3 assumes a change year over year in total U.S. Mortgage Market Credit inquiries received by Equifax in the third quarter of 2023 to be a decline of about 23%. For full year 2023, our guidance assumes a decline of about 31%.</t>
+          <t>During the second quarter of 2023, we recorded a foreign currency gain on certain intercompany loans of $1.8 million. During the second quarter of 2022, we recorded a foreign currency gain on certain intercompany loans of $3.0 million. The impact was recorded to the Other income, net line item within the Consolidated Statements of Income. See the Notes to this reconciliation for additional detail.</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>-7.210007667541504</v>
+        <v>-1.075979471206665</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Mortgage Fees, Market Fees, Private Credit, Credit cost, Market share, Credit card fees, Credit income, Credit portfolio performance, Market share</t>
+          <t>Non-performing loans</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Sector trend, Financial metric - Bank</t>
+          <t>Financial metric - Bank</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>The change year over year in total U.S. mortgage credit inquiries received by Equifax in the second quarter of 2023 was a decline of 33%. The guidance provided on page 3 assumes a change year over year in total U.S. Mortgage Market Credit inquiries received by Equifax in the third quarter of 2023 to be a decline of about 23%. For full year 2023, our guidance assumes a decline of about 31%.</t>
+          <t>During the second quarter of 2023, we recorded a foreign currency gain on certain intercompany loans of $1.8 million. During the second quarter of 2022, we recorded a foreign currency gain on certain intercompany loans of $3.0 million. The impact was recorded to the Other income, net line item within the Consolidated Statements of Income. See the Notes to this reconciliation for additional detail.</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>-7.008683204650879</v>
+        <v>-0.9911010265350342</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>2 year – 10 year spread</t>
+          <t>Non-performing loans</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Macro</t>
+          <t>Financial metric - Bank</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>(Dollars in millions, except per share amounts)</t>
+          <t>During the second quarter of 2023, we recorded a foreign currency gain on certain intercompany loans of $1.8 million. During the second quarter of 2022, we recorded a foreign currency gain on certain intercompany loans of $3.0 million. The impact was recorded to the Other income, net line item within the Consolidated Statements of Income. See the Notes to this reconciliation for additional detail.</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>9.524150848388672</v>
+        <v>9.439018249511719</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Earnings per Share / EPS, Rate per contract, Market share, Units per transaction, Market share</t>
+          <t>Net Interest Income</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Sector trend, Financial metric - Bank, Financial metric - All</t>
+          <t>Financial metric - Bank</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Reconciliation of net income attributable to Equifax to diluted EPS attributable to Equifax, defined as net income adjusted for acquisition-related amortization expense, legal expenses related to the 2017 cybersecurity incident, fair value adjustment and gain on sale of equity investments, foreign currency impact of certain intercompany loans, acquisition-related costs other than acquisition amortization, income tax effect of stock awards recognized upon vesting or settlement, Argentina highly inflationary foreign currency adjustment, realignment of resources and other costs and income tax adjustments:</t>
+          <t>During the second quarter of 2023, we recorded $26.9 million ($21.2 million, net of tax) for acquisition costs other than acquisition-related amortization. During the second quarter of 2022, we recorded $12.0 million ($9.1 million, net of tax) for acquisition costs other than acquisition-related amortization. These costs primarily related to integration costs resulting from recent acquisitions and were recorded in operating income. See the Notes to this reconciliation for additional detail.</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>8.696756362915039</v>
+        <v>9.186419486999512</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Earnings per Share / EPS, Collateral value, Distribution costs, Buying costs, Credit income, Risk adjustment</t>
+          <t>Distribution costs</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Sector trend, Financial metric - Bank, Financial metric - All</t>
+          <t>Sector trend</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>(In millions, except per share amounts)</t>
+          <t>During the second quarter of 2023, we recorded $26.9 million ($21.2 million, net of tax) for acquisition costs other than acquisition-related amortization. During the second quarter of 2022, we recorded $12.0 million ($9.1 million, net of tax) for acquisition costs other than acquisition-related amortization. These costs primarily related to integration costs resulting from recent acquisitions and were recorded in operating income. See the Notes to this reconciliation for additional detail.</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>9.507228851318359</v>
+        <v>9.254349708557129</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Earnings per Share / EPS, Rate per contract, Market share, Units per transaction, Market share</t>
+          <t>Distribution costs</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Sector trend, Financial metric - Bank, Financial metric - All</t>
+          <t>Sector trend</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Net income attributable to Equifax</t>
+          <t>During the second quarter of 2023, we recorded $26.9 million ($21.2 million, net of tax) for acquisition costs other than acquisition-related amortization. During the second quarter of 2022, we recorded $12.0 million ($9.1 million, net of tax) for acquisition costs other than acquisition-related amortization. These costs primarily related to integration costs resulting from recent acquisitions and were recorded in operating income. See the Notes to this reconciliation for additional detail.</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>9.466198921203613</v>
+        <v>8.68303394317627</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Net Asset Value / NAV, Net Interest Income, Net Charge Off, Net Interest Margin (NIM), Credit income</t>
+          <t>Distribution costs</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Sector trend, Financial metric - Bank</t>
+          <t>Sector trend</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Acquisition-related amortization expense of certain acquired intangibles</t>
+          <t>During the second quarter of 2023, we recorded a tax benefit of $0.8 million related to the tax effects of deductions for stock compensation in excess of amounts recorded for compensation costs. During the second quarter of 2022, we recorded a tax benefit of $2.0 million related to the tax effects of deductions for stock compensation expense in excess of amounts recorded for compensation costs. See the Notes to this reconciliation for additional detail.</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>9.398941993713379</v>
+        <v>5.898336887359619</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Logistics expense</t>
+          <t>Incentive compensation, Distribution costs</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Sector trend</t>
+          <t>Sector trend, Financial metric - All</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Fair market value adjustment and gain on sale of equity investments (3)</t>
+          <t>During the second quarter of 2023, we recorded a tax benefit of $0.8 million related to the tax effects of deductions for stock compensation in excess of amounts recorded for compensation costs. During the second quarter of 2022, we recorded a tax benefit of $2.0 million related to the tax effects of deductions for stock compensation expense in excess of amounts recorded for compensation costs. See the Notes to this reconciliation for additional detail.</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>7.458470344543457</v>
+        <v>3.756125688552856</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Collateral value, Hard market, Risk adjustment</t>
+          <t>Incentive compensation, Distribution costs</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Sector trend, Financial metric - Bank</t>
+          <t>Sector trend, Financial metric - All</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Foreign currency impact of certain intercompany loans (4)</t>
+          <t>Argentina experienced multiple periods of increasing inflation rates, devaluation of the peso, and increasing borrowing rates. As such, Argentina was deemed a highly inflationary economy by accounting policymakers in 2018. During the second quarter of</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>9.50306224822998</v>
+        <v>-5.917209148406982</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Non-performing loans, Stage 2 loans, Stage 3 loans</t>
+          <t>Materials inflation, Claims inflation, Order rates</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Financial metric - Bank</t>
+          <t>Sector trend, Macro</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Acquisition-related costs other than acquisition amortization (5) Income tax effects of stock awards that are recognized upon vesting or settlement (6)</t>
+          <t>During the second quarter of 2023, we recorded the tax impact of adjustments of $18.5 million comprised of (i) acquisition-related amortization expense of certain acquired intangibles of $11.3 million ($15.4 million of tax expense net of $4.1 million of cash income tax benefit), (ii) a tax adjustment of $0.1 million related to legal expenses for the 2017 cybersecurity incident, (iii) a tax adjustment of $3.7 million related to the fair market value adjustment and gain on sale of equity investments (vi) a tax adjustment of $5.1 million related to the realignment of internal resources and (v) a tax adjustment of $5.7 million related to acquisition costs other than acquisition-related amortization.</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>9.464044570922852</v>
+        <v>8.290063858032227</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Net Interest Income, Fee Income, Distribution costs, Buying costs</t>
+          <t>Collateral value, Distribution costs</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -2366,175 +2366,175 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Argentina highly inflationary foreign currency adjustment (7)</t>
+          <t>During the second quarter of 2022, we recorded the tax impact of adjustments of $14.7 million comprised of (i) acquisition-related amortization expense of certain acquired intangibles of $10.7 million ($14.8 million of tax expense net of $4.1 million of cash income tax benefit), (ii) a tax adjustment of $0.1 million related to legal expenses for the 2017 cybersecurity incident, (iii) a tax adjustment of $1.0 million related to the loss on fair market value adjustment and gain on sale of equity investments and (iv) a tax adjustment of $2.9 million related to acquisition costs other than acquisition-related amortization.</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>-3.955538272857666</v>
+        <v>8.118644714355469</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Risk adjustment</t>
+          <t>Collateral value, Distribution costs</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Sector trend</t>
+          <t>Sector trend, Financial metric - Bank</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Realignment of resources and other costs (8)</t>
+          <t>Reconciliation of net income attributable to Equifax to adjusted EBITDA, defined as net income excluding income taxes, interest expense, net, depreciation and amortization expense, legal expenses related to the 2017 cybersecurity incident, fair value adjustment and gain on sale of equity investments, foreign currency impact of certain intercompany loans, acquisition-related costs other than acquisition amortization, Argentina highly inflationary foreign currency adjustment, realignment</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>9.519355773925781</v>
+        <v>8.56790828704834</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Distribution costs, Buying costs</t>
+          <t>Collateral value, Distribution costs</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Sector trend</t>
+          <t>Sector trend, Financial metric - Bank</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Net income attributable to Equifax, adjusted for items listed above</t>
+          <t>of resources and other costs and presentation of adjusted EBITDA margin:</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>9.419528961181641</v>
+        <v>9.312440872192383</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Net Asset Value / NAV, Net Interest Income, Net Charge Off, Net Interest Margin (NIM), Credit income</t>
+          <t>Distribution costs</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Sector trend, Financial metric - Bank</t>
+          <t>Sector trend</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Diluted EPS attributable to Equifax, adjusted for the items listed above Weighted-average shares used in computing diluted EPS</t>
+          <t>During the second quarter of 2023, we recorded an unrealized gain on the fair market value adjustment and gain on sale of equity investments of $10.5 million ($6.8 million, net of tax). During the second quarter of 2022, we recorded an unrealized loss on the fair market value adjustment and gain on sale of equity investments of $6.7 million ($5.7 million, net of tax). The fair value adjustments were recorded to the Other income, net line item within the Consolidated Statements of Income. See the Notes to this reconciliation for additional details.</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>9.363529205322266</v>
+        <v>-0.9175643920898438</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Earnings per Share / EPS</t>
+          <t>Collateral value</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Financial metric - All</t>
+          <t>Financial metric - Bank</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>During the second quarter of 2023, we recorded acquisition-related amortization expense of certain acquired intangibles of $60.3 million ($49.0 million, net of tax). We calculate this financial measure by excluding the impact of acquisition-related amortization expense and including a benefit to reflect the significant cash income tax savings resulting from the income tax deductibility of amortization for certain acquired intangibles. The $11.3 million of tax is comprised of $15.4 million of tax expense net of $4.1 million of a cash income tax benefit. During the second quarter of 2022, we recorded acquisition-related amortization expense of certain acquired intangibles of $57.9 million ($47.2 million, net of tax). The $10.7 million of tax is comprised of $14.8 million of tax expense net of $4.1 million of a cash income tax benefit. See the Notes to this reconciliation for additional detail.</t>
+          <t>During the second quarter of 2023, we recorded an unrealized gain on the fair market value adjustment and gain on sale of equity investments of $10.5 million ($6.8 million, net of tax). During the second quarter of 2022, we recorded an unrealized loss on the fair market value adjustment and gain on sale of equity investments of $6.7 million ($5.7 million, net of tax). The fair value adjustments were recorded to the Other income, net line item within the Consolidated Statements of Income. See the Notes to this reconciliation for additional details.</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>4.680610179901123</v>
+        <v>-7.213561534881592</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Logistics expense</t>
+          <t>Collateral value</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Sector trend</t>
+          <t>Financial metric - Bank</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>During the second quarter of 2023, we recorded acquisition-related amortization expense of certain acquired intangibles of $60.3 million ($49.0 million, net of tax). We calculate this financial measure by excluding the impact of acquisition-related amortization expense and including a benefit to reflect the significant cash income tax savings resulting from the income tax deductibility of amortization for certain acquired intangibles. The $11.3 million of tax is comprised of $15.4 million of tax expense net of $4.1 million of a cash income tax benefit. During the second quarter of 2022, we recorded acquisition-related amortization expense of certain acquired intangibles of $57.9 million ($47.2 million, net of tax). The $10.7 million of tax is comprised of $14.8 million of tax expense net of $4.1 million of a cash income tax benefit. See the Notes to this reconciliation for additional detail.</t>
+          <t>During the second quarter of 2023, we recorded an unrealized gain on the fair market value adjustment and gain on sale of equity investments of $10.5 million ($6.8 million, net of tax). During the second quarter of 2022, we recorded an unrealized loss on the fair market value adjustment and gain on sale of equity investments of $6.7 million ($5.7 million, net of tax). The fair value adjustments were recorded to the Other income, net line item within the Consolidated Statements of Income. See the Notes to this reconciliation for additional details.</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>6.792271614074707</v>
+        <v>9.423862457275391</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Logistics expense, Credit income</t>
+          <t>Net Interest Income, Collateral value</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Sector trend</t>
+          <t>Financial metric - Bank</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>During the second quarter of 2023, we recorded acquisition-related amortization expense of certain acquired intangibles of $60.3 million ($49.0 million, net of tax). We calculate this financial measure by excluding the impact of acquisition-related amortization expense and including a benefit to reflect the significant cash income tax savings resulting from the income tax deductibility of amortization for certain acquired intangibles. The $11.3 million of tax is comprised of $15.4 million of tax expense net of $4.1 million of a cash income tax benefit. During the second quarter of 2022, we recorded acquisition-related amortization expense of certain acquired intangibles of $57.9 million ($47.2 million, net of tax). The $10.7 million of tax is comprised of $14.8 million of tax expense net of $4.1 million of a cash income tax benefit. See the Notes to this reconciliation for additional detail.</t>
+          <t>During the second quarter of 2023, we recorded a foreign currency gain on certain intercompany loans of $1.8 million. During the second quarter of 2022, we recorded a foreign currency gain on certain intercompany loans of $3.0 million. See the Notes to this reconciliation for additional detail.</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>9.278972625732422</v>
+        <v>-1.075979471206665</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Logistics expense, Credit income</t>
+          <t>Non-performing loans</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Sector trend</t>
+          <t>Financial metric - Bank</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>During the second quarter of 2023, we recorded acquisition-related amortization expense of certain acquired intangibles of $60.3 million ($49.0 million, net of tax). We calculate this financial measure by excluding the impact of acquisition-related amortization expense and including a benefit to reflect the significant cash income tax savings resulting from the income tax deductibility of amortization for certain acquired intangibles. The $11.3 million of tax is comprised of $15.4 million of tax expense net of $4.1 million of a cash income tax benefit. During the second quarter of 2022, we recorded acquisition-related amortization expense of certain acquired intangibles of $57.9 million ($47.2 million, net of tax). The $10.7 million of tax is comprised of $14.8 million of tax expense net of $4.1 million of a cash income tax benefit. See the Notes to this reconciliation for additional detail.</t>
+          <t>During the second quarter of 2023, we recorded a foreign currency gain on certain intercompany loans of $1.8 million. During the second quarter of 2022, we recorded a foreign currency gain on certain intercompany loans of $3.0 million. See the Notes to this reconciliation for additional detail.</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>2.765497446060181</v>
+        <v>-0.9911010265350342</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Logistics expense</t>
+          <t>Non-performing loans</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Sector trend</t>
+          <t>Financial metric - Bank</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>During the second quarter of 2023, we recorded acquisition-related amortization expense of certain acquired intangibles of $60.3 million ($49.0 million, net of tax). We calculate this financial measure by excluding the impact of acquisition-related amortization expense and including a benefit to reflect the significant cash income tax savings resulting from the income tax deductibility of amortization for certain acquired intangibles. The $11.3 million of tax is comprised of $15.4 million of tax expense net of $4.1 million of a cash income tax benefit. During the second quarter of 2022, we recorded acquisition-related amortization expense of certain acquired intangibles of $57.9 million ($47.2 million, net of tax). The $10.7 million of tax is comprised of $14.8 million of tax expense net of $4.1 million of a cash income tax benefit. See the Notes to this reconciliation for additional detail.</t>
+          <t>During the second quarter of 2023, we recorded $26.9 million ($21.2 million, net of tax) for acquisition costs other than acquisition-related amortization. During the second quarter of 2022, we recorded $12.0 million ($9.1 million, net of tax) for acquisition costs other than acquisition-related amortization. These costs primarily related to integration costs resulting from recent acquisitions and were recorded in operating income. See the Notes to this reconciliation for additional detail.</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>9.274014472961426</v>
+        <v>9.186419486999512</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Logistics expense, Credit income</t>
+          <t>Distribution costs</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -2546,75 +2546,75 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>During the second quarter of 2023, we recorded an unrealized gain on the fair market value adjustment and gain on sale of equity investments of $10.5 million ($6.8 million, net of tax). During the second quarter of 2022, we recorded an unrealized loss on the fair market value adjustment and gain on sale of equity investments of $6.7 million ($5.7 million, net of tax). The fair value adjustments were recorded to the Other income, net line item within the Consolidated Statements of Income. See the Notes to this reconciliation for additional details.</t>
+          <t>During the second quarter of 2023, we recorded $26.9 million ($21.2 million, net of tax) for acquisition costs other than acquisition-related amortization. During the second quarter of 2022, we recorded $12.0 million ($9.1 million, net of tax) for acquisition costs other than acquisition-related amortization. These costs primarily related to integration costs resulting from recent acquisitions and were recorded in operating income. See the Notes to this reconciliation for additional detail.</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>-0.9175643920898438</v>
+        <v>9.254349708557129</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Collateral value, Hard market, Risk adjustment</t>
+          <t>Distribution costs</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Sector trend, Financial metric - Bank</t>
+          <t>Sector trend</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>During the second quarter of 2023, we recorded an unrealized gain on the fair market value adjustment and gain on sale of equity investments of $10.5 million ($6.8 million, net of tax). During the second quarter of 2022, we recorded an unrealized loss on the fair market value adjustment and gain on sale of equity investments of $6.7 million ($5.7 million, net of tax). The fair value adjustments were recorded to the Other income, net line item within the Consolidated Statements of Income. See the Notes to this reconciliation for additional details.</t>
+          <t>During the second quarter of 2023, we recorded $26.9 million ($21.2 million, net of tax) for acquisition costs other than acquisition-related amortization. During the second quarter of 2022, we recorded $12.0 million ($9.1 million, net of tax) for acquisition costs other than acquisition-related amortization. These costs primarily related to integration costs resulting from recent acquisitions and were recorded in operating income. See the Notes to this reconciliation for additional detail.</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>-7.213561534881592</v>
+        <v>8.68303394317627</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Collateral value, Hard market, Risk adjustment</t>
+          <t>Distribution costs</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Sector trend, Financial metric - Bank</t>
+          <t>Sector trend</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>During the second quarter of 2023, we recorded an unrealized gain on the fair market value adjustment and gain on sale of equity investments of $10.5 million ($6.8 million, net of tax). During the second quarter of 2022, we recorded an unrealized loss on the fair market value adjustment and gain on sale of equity investments of $6.7 million ($5.7 million, net of tax). The fair value adjustments were recorded to the Other income, net line item within the Consolidated Statements of Income. See the Notes to this reconciliation for additional details.</t>
+          <t>Argentina experienced multiple periods of increasing inflation rates, devaluation of the peso, and increasing borrowing rates. As such, Argentina was deemed a highly inflationary economy by accounting policymakers in 2018. During the second quarter of</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>9.423862457275391</v>
+        <v>-5.917209148406982</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Net Interest Income, Fee Income, Collateral value</t>
+          <t>Materials inflation, Claims inflation, Order rates</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Financial metric - Bank</t>
+          <t>Sector trend, Macro</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>During the second quarter of 2023, we recorded a foreign currency gain on certain intercompany loans of $1.8 million. During the second quarter of 2022, we recorded a foreign currency gain on certain intercompany loans of $3.0 million. The impact was recorded to the Other income, net line item within the Consolidated Statements of Income. See the Notes to this reconciliation for additional detail.</t>
+          <t>Reconciliation of operating income by segment to Adjusted EBITDA, excluding depreciation and amortization expense, other income, net, noncontrolling interest, legal expenses related to the 2017 cybersecurity incident, fair value adjustment and</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>-1.075979471206665</v>
+        <v>8.804485321044922</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Non-performing loans, Stage 2 loans, Stage 3 loans</t>
+          <t>Collateral value</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -2626,175 +2626,175 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>During the second quarter of 2023, we recorded a foreign currency gain on certain intercompany loans of $1.8 million. During the second quarter of 2022, we recorded a foreign currency gain on certain intercompany loans of $3.0 million. The impact was recorded to the Other income, net line item within the Consolidated Statements of Income. See the Notes to this reconciliation for additional detail.</t>
+          <t>gain on sale of equity investments, foreign currency impact of certain intercompany loans, acquisition-related costs other than acquisition amortization, Argentina highly inflationary foreign currency adjustment, realignment of resources and other costs and presentation of adjusted EBITDA margin for each of the segments:</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>-0.9911010265350342</v>
+        <v>3.91176962852478</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Non-performing loans, Stage 2 loans, Stage 3 loans</t>
+          <t>Gross margin, Contribution margin, Distribution costs</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Financial metric - Bank</t>
+          <t>Sector trend, Financial metric - All</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>During the second quarter of 2023, we recorded a foreign currency gain on certain intercompany loans of $1.8 million. During the second quarter of 2022, we recorded a foreign currency gain on certain intercompany loans of $3.0 million. The impact was recorded to the Other income, net line item within the Consolidated Statements of Income. See the Notes to this reconciliation for additional detail.</t>
+          <t>During the second quarter of 2023, we recorded pre-tax expenses of $0.3 million for legal expenses related to the 2017 cybersecurity incident, a $10.5 million unrealized gain on the fair value adjustment of equity investments, a $1.8 million foreign currency gain on certain intercompany loans, $26.9 million for acquisition costs other than acquisition-related amortization, a foreign currency loss of $0.1 million related to the impact of remeasuring the peso denominated monetary assets and liabilities as a result of Argentina being a highly inflationary economy and $17.5 million of restructuring charges for the realignment of internal resources and other costs.</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>9.439018249511719</v>
+        <v>-3.616798877716064</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Net Interest Income, Fee Income</t>
+          <t>Collateral value, Distribution costs</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Financial metric - Bank</t>
+          <t>Sector trend, Financial metric - Bank</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>During the second quarter of 2023, we recorded $26.9 million ($21.2 million, net of tax) for acquisition costs other than acquisition-related amortization. During the second quarter of 2022, we recorded $12.0 million ($9.1 million, net of tax) for acquisition costs other than acquisition-related amortization. These costs primarily related to integration costs resulting from recent acquisitions and were recorded in operating income. See the Notes to this reconciliation for additional detail.</t>
+          <t>During the second quarter of 2022, we recorded pre-tax expenses of $0.5 million for legal expenses related to the 2017 cybersecurity incident, a $6.7 million unrealized loss on the fair value adjustment and gain on sale of equity investments, a $3.0 million foreign currency gain on certain intercompany loans, $12.0 million in acquisition costs other than acquisition-related amortization and a $0.1 million foreign currency gain related to the impact of remeasuring the peso denominated monetary assets and liabilities as a result of Argentina being a highly inflationary economy.</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>9.186419486999512</v>
+        <v>-3.790071964263916</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Distribution costs, Buying costs</t>
+          <t>Collateral value, Distribution costs</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Sector trend</t>
+          <t>Sector trend, Financial metric - Bank</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>During the second quarter of 2023, we recorded $26.9 million ($21.2 million, net of tax) for acquisition costs other than acquisition-related amortization. During the second quarter of 2022, we recorded $12.0 million ($9.1 million, net of tax) for acquisition costs other than acquisition-related amortization. These costs primarily related to integration costs resulting from recent acquisitions and were recorded in operating income. See the Notes to this reconciliation for additional detail.</t>
+          <t>Diluted EPS attributable to Equifax is adjusted for the following items:</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>9.254349708557129</v>
+        <v>9.254966735839844</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Distribution costs, Buying costs</t>
+          <t>Earnings per Share / EPS</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Sector trend</t>
+          <t>Financial metric - All</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>During the second quarter of 2023, we recorded $26.9 million ($21.2 million, net of tax) for acquisition costs other than acquisition-related amortization. During the second quarter of 2022, we recorded $12.0 million ($9.1 million, net of tax) for acquisition costs other than acquisition-related amortization. These costs primarily related to integration costs resulting from recent acquisitions and were recorded in operating income. See the Notes to this reconciliation for additional detail.</t>
+          <t>Acquisition- related amortization expense - During the second quarter of 2023 and 2022, we recorded acquisition-related amortization expense of certain acquired intangibles of $60.3 million ($49.0 million, net of tax) and $57.9 million ($47.2 million, net of tax), respectively. We calculate this financial measure by excluding the impact of acquisition-related amortization expense and including a benefit to reflect the material cash income tax savings resulting from the income tax deductibility of amortization for certain acquired intangibles. These financial measures are not prepared in conformity with GAAP. Management believes excluding the impact of amortization expense is useful because excluding acquisition -related amortization and other items that are not comparable allows investors to evaluate our performance for different periods on a more comparable basis. Certain acquired intangibles result in material cash income tax savings which are not reflected in earnings. Management believes that including a benefit to reflect the cash income tax savings is useful as it allows investors to better value Equifax. Management makes these adjustments to earnings when measuring profitability, evaluating performance trends, setting performance objectives and calculating our return on invested capital.</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>8.68303394317627</v>
+        <v>9.315138816833496</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Distribution costs, Buying costs, Credit income</t>
+          <t>Raw material</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Sector trend</t>
+          <t>Financial metric - All</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>During the second quarter of 2023, we recorded a tax benefit of $0.8 million related to the tax effects of deductions for stock compensation in excess of amounts recorded for compensation costs. During the second quarter of 2022, we recorded a tax benefit of $2.0 million related to the tax effects of deductions for stock compensation expense in excess of amounts recorded for compensation costs. See the Notes to this reconciliation for additional detail.</t>
+          <t>Acquisition- related amortization expense - During the second quarter of 2023 and 2022, we recorded acquisition-related amortization expense of certain acquired intangibles of $60.3 million ($49.0 million, net of tax) and $57.9 million ($47.2 million, net of tax), respectively. We calculate this financial measure by excluding the impact of acquisition-related amortization expense and including a benefit to reflect the material cash income tax savings resulting from the income tax deductibility of amortization for certain acquired intangibles. These financial measures are not prepared in conformity with GAAP. Management believes excluding the impact of amortization expense is useful because excluding acquisition -related amortization and other items that are not comparable allows investors to evaluate our performance for different periods on a more comparable basis. Certain acquired intangibles result in material cash income tax savings which are not reflected in earnings. Management believes that including a benefit to reflect the cash income tax savings is useful as it allows investors to better value Equifax. Management makes these adjustments to earnings when measuring profitability, evaluating performance trends, setting performance objectives and calculating our return on invested capital.</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>5.898336887359619</v>
+        <v>0.6353862285614014</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Incentive compensation, Distribution costs, Buying costs</t>
+          <t>Raw material</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Sector trend, Financial metric - All</t>
+          <t>Financial metric - All</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>During the second quarter of 2023, we recorded a tax benefit of $0.8 million related to the tax effects of deductions for stock compensation in excess of amounts recorded for compensation costs. During the second quarter of 2022, we recorded a tax benefit of $2.0 million related to the tax effects of deductions for stock compensation expense in excess of amounts recorded for compensation costs. See the Notes to this reconciliation for additional detail.</t>
+          <t>Acquisition- related amortization expense - During the second quarter of 2023 and 2022, we recorded acquisition-related amortization expense of certain acquired intangibles of $60.3 million ($49.0 million, net of tax) and $57.9 million ($47.2 million, net of tax), respectively. We calculate this financial measure by excluding the impact of acquisition-related amortization expense and including a benefit to reflect the material cash income tax savings resulting from the income tax deductibility of amortization for certain acquired intangibles. These financial measures are not prepared in conformity with GAAP. Management believes excluding the impact of amortization expense is useful because excluding acquisition -related amortization and other items that are not comparable allows investors to evaluate our performance for different periods on a more comparable basis. Certain acquired intangibles result in material cash income tax savings which are not reflected in earnings. Management believes that including a benefit to reflect the cash income tax savings is useful as it allows investors to better value Equifax. Management makes these adjustments to earnings when measuring profitability, evaluating performance trends, setting performance objectives and calculating our return on invested capital.</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>3.756125688552856</v>
+        <v>-0.5581936836242676</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Incentive compensation, Logistics expense, Distribution costs, Buying costs</t>
+          <t>Collateral value</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Sector trend, Financial metric - All</t>
+          <t>Financial metric - Bank</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Argentina experienced multiple periods of increasing inflation rates, devaluation of the peso, and increasing borrowing rates. As such, Argentina was deemed a highly inflationary economy by accounting policymakers in 2018. During the second quarter of</t>
+          <t>Fair market value adjustment and gain on sale of equity investments- During the second quarter of 2023, we recorded a $10.5 million ($6.8 million, net of tax) unrealized gain related to adjusting our investment in Brazil to fair value and gain related to sale of an equity method investment. During the second quarter of 2022 we recorded a $6.7 million</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>-5.917209148406982</v>
+        <v>0.01654672622680664</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Social inflation, Interest rates, Materials inflation, Claims inflation, Order rates</t>
+          <t>Collateral value</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Sector trend, Macro</t>
+          <t>Financial metric - Bank</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>2023 and 2022, we recorded a foreign currency loss of $0.1 million and a foreign currency gain of $0.1 million, respectively, related to the impact of remeasuring the peso denominated monetary assets and liabilities as a result of Argentina being a highly inflationary economy. See the Notes to this reconciliation for additional detail.</t>
+          <t>($5.7 million, net of tax) unrealized loss related to adjusting our investment in Brazil to fair value and gains related to the sale of two equity method investments. The investment in Brazil has a readily determinable fair value and is adjusted to fair value at the end of each reporting period, with unrealized gains or losses to be recorded within the Consolidated Statements of Income in Other income, net. Management believes excluding these charges from certain financial results provides meaningful supplemental information regarding our financial results for the three months ended June 30, 2023 and 2022, since the non-operating gains or losses are not comparable among the periods. This is consistent with how our management reviews and assesses Equifax's historical performance and is useful when planning, forecasting and analyzing future periods.</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>-7.592513084411621</v>
+        <v>-0.5629728436470032</v>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Risk-weighted assets / Risk-weightings</t>
+          <t>Collateral value</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -2806,75 +2806,75 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>During the second quarter of 2023, we recorded the tax impact of adjustments of $18.5 million comprised of (i) acquisition-related amortization expense of certain acquired intangibles of $11.3 million ($15.4 million of tax expense net of $4.1 million of cash income tax benefit), (ii) a tax adjustment of $0.1 million related to legal expenses for the 2017 cybersecurity incident, (iii) a tax adjustment of $3.7 million related to the fair market value adjustment and gain on sale of equity investments (vi) a tax adjustment of $5.1 million related to the realignment of internal resources and (v) a tax adjustment of $5.7 million related to acquisition costs other than acquisition-related amortization.</t>
+          <t>($5.7 million, net of tax) unrealized loss related to adjusting our investment in Brazil to fair value and gains related to the sale of two equity method investments. The investment in Brazil has a readily determinable fair value and is adjusted to fair value at the end of each reporting period, with unrealized gains or losses to be recorded within the Consolidated Statements of Income in Other income, net. Management believes excluding these charges from certain financial results provides meaningful supplemental information regarding our financial results for the three months ended June 30, 2023 and 2022, since the non-operating gains or losses are not comparable among the periods. This is consistent with how our management reviews and assesses Equifax's historical performance and is useful when planning, forecasting and analyzing future periods.</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>8.290063858032227</v>
+        <v>9.355177879333496</v>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Collateral value, Hard market, Logistics expense, Distribution costs, Buying costs, Credit income, Risk adjustment</t>
+          <t>Net Interest Income, Collateral value</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Sector trend, Financial metric - Bank</t>
+          <t>Financial metric - Bank</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>During the second quarter of 2022, we recorded the tax impact of adjustments of $14.7 million comprised of (i) acquisition-related amortization expense of certain acquired intangibles of $10.7 million ($14.8 million of tax expense net of $4.1 million of cash income tax benefit), (ii) a tax adjustment of $0.1 million related to legal expenses for the 2017 cybersecurity incident, (iii) a tax adjustment of $1.0 million related to the loss on fair market value adjustment and gain on sale of equity investments and (iv) a tax adjustment of $2.9 million related to acquisition costs other than acquisition-related amortization.</t>
+          <t>Foreign currency impact of certain intercompany loans - During the second quarter of 2023 and 2022, we recorded a gain of $1.8 million and $3.0 million, respectively, related to foreign currency impact of certain intercompany loans. Management believes excluding this charge is useful as it allows investors to evaluate our performance for different periods on a more comparable basis. This is consistent with how management reviews and assesses Equifax's historical performance and is useful when planning, forecasting and analyzing future periods.</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>8.118644714355469</v>
+        <v>-1.269707679748535</v>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Collateral value, Hard market, Logistics expense, Distribution costs, Buying costs, Credit income, Risk adjustment</t>
+          <t>Non-performing loans</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Sector trend, Financial metric - Bank</t>
+          <t>Financial metric - Bank</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Reconciliation of net income attributable to Equifax to adjusted EBITDA, defined as net income excluding income taxes, interest expense, net, depreciation and amortization expense, legal expenses related to the 2017 cybersecurity incident, fair value adjustment and gain on sale of equity investments, foreign currency impact of certain intercompany loans, acquisition-related costs other than acquisition amortization, Argentina highly inflationary foreign currency adjustment, realignment</t>
+          <t>Acquisition-related costs other than acquisition amortization - During the second quarter of 2023 and 2022, we recorded $26.9 million ($21.2 million, net of tax) and $12.0 million ($9.1 million, net of tax), respectively, for acquisition costs other than acquisition-related amortization. These costs primarily related to integration costs resulting from recent acquisitions and were recorded in operating income. Management believes excluding this charge from certain financial results provides meaningful supplemental information regarding our financial results, since a charge of such an amount is not comparable among the periods. This is consistent with how our management reviews and assesses Equifax's historical performance and is useful when planning, forecasting, and analyzing future periods.</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>8.56790828704834</v>
+        <v>9.193694114685059</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Collateral value, ECB interest rate, Distribution costs, Buying costs, Credit income, Risk adjustment</t>
+          <t>Distribution costs</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Sector trend, Financial metric - Bank, Regulation</t>
+          <t>Sector trend</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>of resources and other costs and presentation of adjusted EBITDA margin:</t>
+          <t>Acquisition-related costs other than acquisition amortization - During the second quarter of 2023 and 2022, we recorded $26.9 million ($21.2 million, net of tax) and $12.0 million ($9.1 million, net of tax), respectively, for acquisition costs other than acquisition-related amortization. These costs primarily related to integration costs resulting from recent acquisitions and were recorded in operating income. Management believes excluding this charge from certain financial results provides meaningful supplemental information regarding our financial results, since a charge of such an amount is not comparable among the periods. This is consistent with how our management reviews and assesses Equifax's historical performance and is useful when planning, forecasting, and analyzing future periods.</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>9.312440872192383</v>
+        <v>8.68303394317627</v>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Distribution costs, Buying costs</t>
+          <t>Distribution costs</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -2886,1060 +2886,120 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>*Excludes interest income of $2.5 million in 2023 and $0.2 million 2022.</t>
+          <t>Income tax effects of stock awards that are recognized upon vesting or settlement-During the second quarter of 2023, we recorded a tax benefit of $0.8 million related to the tax effects of deductions for stock compensation in excess of amounts recorded for compensation costs. During the second quarter of 2022, we recorded a tax benefit of $2.0 million related to the tax effects of deductions for stock compensation in excess of amounts recorded for compensation costs. Management believes excluding this tax effect from financial results provides meaningful supplemental information regarding our financial results for the three months ended June 30, 2023 and 2022 because these amounts are non-operating and relate to income tax benefits or deficiencies for stock awards recognized when tax amounts differ from recognized stock compensation cost. This is consistent with how management reviews and assesses Equifax's historical performance and is useful when planning, forecasting and analyzing future periods.</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>9.592462539672852</v>
+        <v>9.537389755249023</v>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>ECB interest rate, Credit income</t>
+          <t>Incentive compensation, Net Interest Income, Distribution costs</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Sector trend, Regulation</t>
+          <t>Sector trend, Financial metric - All, Financial metric - Bank</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>During the second quarter of 2023, we recorded an unrealized gain on the fair market value adjustment and gain on sale of equity investments of $10.5 million ($6.8 million, net of tax). During the second quarter of 2022, we recorded an unrealized loss on the fair market value adjustment and gain on sale of equity investments of $6.7 million ($5.7 million, net of tax). The fair value adjustments were recorded to the Other income, net line item within the Consolidated Statements of Income. See the Notes to this reconciliation for additional details.</t>
+          <t>Income tax effects of stock awards that are recognized upon vesting or settlement-During the second quarter of 2023, we recorded a tax benefit of $0.8 million related to the tax effects of deductions for stock compensation in excess of amounts recorded for compensation costs. During the second quarter of 2022, we recorded a tax benefit of $2.0 million related to the tax effects of deductions for stock compensation in excess of amounts recorded for compensation costs. Management believes excluding this tax effect from financial results provides meaningful supplemental information regarding our financial results for the three months ended June 30, 2023 and 2022 because these amounts are non-operating and relate to income tax benefits or deficiencies for stock awards recognized when tax amounts differ from recognized stock compensation cost. This is consistent with how management reviews and assesses Equifax's historical performance and is useful when planning, forecasting and analyzing future periods.</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>-0.9175643920898438</v>
+        <v>5.326368808746338</v>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Collateral value, Hard market, Risk adjustment</t>
+          <t>Incentive compensation, Distribution costs</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Sector trend, Financial metric - Bank</t>
+          <t>Sector trend, Financial metric - All</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>During the second quarter of 2023, we recorded an unrealized gain on the fair market value adjustment and gain on sale of equity investments of $10.5 million ($6.8 million, net of tax). During the second quarter of 2022, we recorded an unrealized loss on the fair market value adjustment and gain on sale of equity investments of $6.7 million ($5.7 million, net of tax). The fair value adjustments were recorded to the Other income, net line item within the Consolidated Statements of Income. See the Notes to this reconciliation for additional details.</t>
+          <t>Income tax effects of stock awards that are recognized upon vesting or settlement-During the second quarter of 2023, we recorded a tax benefit of $0.8 million related to the tax effects of deductions for stock compensation in excess of amounts recorded for compensation costs. During the second quarter of 2022, we recorded a tax benefit of $2.0 million related to the tax effects of deductions for stock compensation in excess of amounts recorded for compensation costs. Management believes excluding this tax effect from financial results provides meaningful supplemental information regarding our financial results for the three months ended June 30, 2023 and 2022 because these amounts are non-operating and relate to income tax benefits or deficiencies for stock awards recognized when tax amounts differ from recognized stock compensation cost. This is consistent with how management reviews and assesses Equifax's historical performance and is useful when planning, forecasting and analyzing future periods.</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>-7.213561534881592</v>
+        <v>9.211101531982422</v>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Collateral value, Hard market, Risk adjustment</t>
+          <t>Incentive compensation, Credit cost, Fuel cost</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Sector trend, Financial metric - Bank</t>
+          <t>Sector trend, Financial metric - All, Financial metric - Bank</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>During the second quarter of 2023, we recorded an unrealized gain on the fair market value adjustment and gain on sale of equity investments of $10.5 million ($6.8 million, net of tax). During the second quarter of 2022, we recorded an unrealized loss on the fair market value adjustment and gain on sale of equity investments of $6.7 million ($5.7 million, net of tax). The fair value adjustments were recorded to the Other income, net line item within the Consolidated Statements of Income. See the Notes to this reconciliation for additional details.</t>
+          <t>Argentina highly inflationary foreign currency adjustment - Argentina experienced multiple periods of increasing inflation rates, devaluation of the peso, and increasing borrowing rates. As such, Argentina was deemed a highly inflationary economy by accounting policymakers. We recorded a foreign currency loss of $0.1 million and a foreign currency gain of $0.1 million during the second quarter of 2023 and 2022, respectively, as a result of remeasuring the peso denominated monetary assets and liabilities due to Argentina being highly inflationary. Management believes excluding this charge is useful as it allows investors to evaluate our performance for different periods on a more comparable basis. This is consistent with how management reviews and assesses Equifax's historical performance and is useful when planning, forecasting and analyzing future periods.</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>9.423862457275391</v>
+        <v>-5.854397296905518</v>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Net Interest Income, Fee Income, Collateral value</t>
+          <t>Materials inflation, Claims inflation, Order rates</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Financial metric - Bank</t>
+          <t>Sector trend, Macro</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>During the second quarter of 2023, we recorded a foreign currency gain on certain intercompany loans of $1.8 million. During the second quarter of 2022, we recorded a foreign currency gain on certain intercompany loans of $3.0 million. See the Notes to this reconciliation for additional detail.</t>
+          <t>Adjusted EBITDA and EBITDA margin - Management defines adjusted EBITDA as consolidated net income attributable to Equifax plus net interest expense, income taxes, depreciation and amortization and also excludes certain one-time items. Management believes the use of adjusted EBITDA and adjusted EBITDA margin allows investors to evaluate our performance for different periods on a more comparable basis.</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>-1.075979471206665</v>
+        <v>9.255197525024414</v>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Non-performing loans, Stage 2 loans, Stage 3 loans</t>
+          <t>Gross margin, Contribution margin</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Financial metric - Bank</t>
+          <t>Financial metric - All</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>During the second quarter of 2023, we recorded a foreign currency gain on certain intercompany loans of $1.8 million. During the second quarter of 2022, we recorded a foreign currency gain on certain intercompany loans of $3.0 million. See the Notes to this reconciliation for additional detail.</t>
+          <t>Adjusted EBITDA and EBITDA margin - Management defines adjusted EBITDA as consolidated net income attributable to Equifax plus net interest expense, income taxes, depreciation and amortization and also excludes certain one-time items. Management believes the use of adjusted EBITDA and adjusted EBITDA margin allows investors to evaluate our performance for different periods on a more comparable basis.</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>-0.9911010265350342</v>
+        <v>9.08729362487793</v>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Non-performing loans, Stage 2 loans, Stage 3 loans</t>
+          <t>Gross margin, Contribution margin</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Financial metric - Bank</t>
-        </is>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="inlineStr">
-        <is>
-          <t>During the second quarter of 2023, we recorded $26.9 million ($21.2 million, net of tax) for acquisition costs other than acquisition-related amortization. During the second quarter of 2022, we recorded $12.0 million ($9.1 million, net of tax) for acquisition costs other than acquisition-related amortization. These costs primarily related to integration costs resulting from recent acquisitions and were recorded in operating income. See the Notes to this reconciliation for additional detail.</t>
-        </is>
-      </c>
-      <c r="B130" t="n">
-        <v>9.186419486999512</v>
-      </c>
-      <c r="C130" t="inlineStr">
-        <is>
-          <t>Distribution costs, Buying costs</t>
-        </is>
-      </c>
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>Sector trend</t>
-        </is>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="inlineStr">
-        <is>
-          <t>During the second quarter of 2023, we recorded $26.9 million ($21.2 million, net of tax) for acquisition costs other than acquisition-related amortization. During the second quarter of 2022, we recorded $12.0 million ($9.1 million, net of tax) for acquisition costs other than acquisition-related amortization. These costs primarily related to integration costs resulting from recent acquisitions and were recorded in operating income. See the Notes to this reconciliation for additional detail.</t>
-        </is>
-      </c>
-      <c r="B131" t="n">
-        <v>9.254349708557129</v>
-      </c>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>Distribution costs, Buying costs</t>
-        </is>
-      </c>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>Sector trend</t>
-        </is>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="inlineStr">
-        <is>
-          <t>During the second quarter of 2023, we recorded $26.9 million ($21.2 million, net of tax) for acquisition costs other than acquisition-related amortization. During the second quarter of 2022, we recorded $12.0 million ($9.1 million, net of tax) for acquisition costs other than acquisition-related amortization. These costs primarily related to integration costs resulting from recent acquisitions and were recorded in operating income. See the Notes to this reconciliation for additional detail.</t>
-        </is>
-      </c>
-      <c r="B132" t="n">
-        <v>8.68303394317627</v>
-      </c>
-      <c r="C132" t="inlineStr">
-        <is>
-          <t>Distribution costs, Buying costs, Credit income</t>
-        </is>
-      </c>
-      <c r="D132" t="inlineStr">
-        <is>
-          <t>Sector trend</t>
-        </is>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="inlineStr">
-        <is>
-          <t>Argentina experienced multiple periods of increasing inflation rates, devaluation of the peso, and increasing borrowing rates. As such, Argentina was deemed a highly inflationary economy by accounting policymakers in 2018. During the second quarter of</t>
-        </is>
-      </c>
-      <c r="B133" t="n">
-        <v>-5.917209148406982</v>
-      </c>
-      <c r="C133" t="inlineStr">
-        <is>
-          <t>Social inflation, Interest rates, Materials inflation, Claims inflation, Order rates</t>
-        </is>
-      </c>
-      <c r="D133" t="inlineStr">
-        <is>
-          <t>Sector trend, Macro</t>
-        </is>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="inlineStr">
-        <is>
-          <t>2023 and 2022, we recorded a foreign currency loss of $0.1 million and a foreign currency gain of $0.1 million, respectively, related to the impact of remeasuring the peso denominated monetary assets and liabilities as a result of Argentina being a highly inflationary economy. See the Notes to this reconciliation for additional detail.</t>
-        </is>
-      </c>
-      <c r="B134" t="n">
-        <v>-7.592513084411621</v>
-      </c>
-      <c r="C134" t="inlineStr">
-        <is>
-          <t>Risk-weighted assets / Risk-weightings</t>
-        </is>
-      </c>
-      <c r="D134" t="inlineStr">
-        <is>
-          <t>Financial metric - Bank</t>
-        </is>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="inlineStr">
-        <is>
-          <t>Reconciliation of operating income by segment to Adjusted EBITDA, excluding depreciation and amortization expense, other income, net, noncontrolling interest, legal expenses related to the 2017 cybersecurity incident, fair value adjustment and</t>
-        </is>
-      </c>
-      <c r="B135" t="n">
-        <v>8.804485321044922</v>
-      </c>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t>Collateral value, Credit income, Risk adjustment</t>
-        </is>
-      </c>
-      <c r="D135" t="inlineStr">
-        <is>
-          <t>Sector trend, Financial metric - Bank</t>
-        </is>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="inlineStr">
-        <is>
-          <t>gain on sale of equity investments, foreign currency impact of certain intercompany loans, acquisition-related costs other than acquisition amortization, Argentina highly inflationary foreign currency adjustment, realignment of resources and other costs and presentation of adjusted EBITDA margin for each of the segments:</t>
-        </is>
-      </c>
-      <c r="B136" t="n">
-        <v>3.91176962852478</v>
-      </c>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>Gross margin, Contribution margin, Distribution costs, Buying costs</t>
-        </is>
-      </c>
-      <c r="D136" t="inlineStr">
-        <is>
-          <t>Sector trend, Financial metric - All</t>
-        </is>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="inlineStr">
-        <is>
-          <t>*Excludes interest income of $0.9 million in International and $1.6 million in General Corporate Expense.</t>
-        </is>
-      </c>
-      <c r="B137" t="n">
-        <v>9.602277755737305</v>
-      </c>
-      <c r="C137" t="inlineStr">
-        <is>
-          <t>ECB interest rate, Credit income</t>
-        </is>
-      </c>
-      <c r="D137" t="inlineStr">
-        <is>
-          <t>Sector trend, Regulation</t>
-        </is>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="inlineStr">
-        <is>
-          <t>*Excludes interest income of $0.2 million in International.</t>
-        </is>
-      </c>
-      <c r="B138" t="n">
-        <v>9.559338569641113</v>
-      </c>
-      <c r="C138" t="inlineStr">
-        <is>
-          <t>ECB interest rate, Credit income</t>
-        </is>
-      </c>
-      <c r="D138" t="inlineStr">
-        <is>
-          <t>Sector trend, Regulation</t>
-        </is>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="inlineStr">
-        <is>
-          <t>During the second quarter of 2023, we recorded pre-tax expenses of $0.3 million for legal expenses related to the 2017 cybersecurity incident, a $10.5 million unrealized gain on the fair value adjustment of equity investments, a $1.8 million foreign currency gain on certain intercompany loans, $26.9 million for acquisition costs other than acquisition-related amortization, a foreign currency loss of $0.1 million related to the impact of remeasuring the peso denominated monetary assets and liabilities as a result of Argentina being a highly inflationary economy and $17.5 million of restructuring charges for the realignment of internal resources and other costs.</t>
-        </is>
-      </c>
-      <c r="B139" t="n">
-        <v>-3.616798877716064</v>
-      </c>
-      <c r="C139" t="inlineStr">
-        <is>
-          <t>Risk-weighted assets / Risk-weightings, Collateral value, Distribution costs, Buying costs, Risk adjustment</t>
-        </is>
-      </c>
-      <c r="D139" t="inlineStr">
-        <is>
-          <t>Sector trend, Financial metric - Bank</t>
-        </is>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="inlineStr">
-        <is>
-          <t>During the second quarter of 2022, we recorded pre-tax expenses of $0.5 million for legal expenses related to the 2017 cybersecurity incident, a $6.7 million unrealized loss on the fair value adjustment and gain on sale of equity investments, a $3.0 million foreign currency gain on certain intercompany loans, $12.0 million in acquisition costs other than acquisition-related amortization and a $0.1 million foreign currency gain related to the impact of remeasuring the peso denominated monetary assets and liabilities as a result of Argentina being a highly inflationary economy.</t>
-        </is>
-      </c>
-      <c r="B140" t="n">
-        <v>-3.790071964263916</v>
-      </c>
-      <c r="C140" t="inlineStr">
-        <is>
-          <t>Risk-weighted assets / Risk-weightings, Collateral value, Distribution costs, Buying costs, Risk adjustment</t>
-        </is>
-      </c>
-      <c r="D140" t="inlineStr">
-        <is>
-          <t>Sector trend, Financial metric - Bank</t>
-        </is>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="inlineStr">
-        <is>
-          <t>Diluted EPS attributable to Equifax is adjusted for the following items:</t>
-        </is>
-      </c>
-      <c r="B141" t="n">
-        <v>9.254966735839844</v>
-      </c>
-      <c r="C141" t="inlineStr">
-        <is>
-          <t>Earnings per Share / EPS</t>
-        </is>
-      </c>
-      <c r="D141" t="inlineStr">
-        <is>
-          <t>Financial metric - All</t>
-        </is>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="inlineStr">
-        <is>
-          <t>Acquisition- related amortization expense - During the second quarter of 2023 and 2022, we recorded acquisition-related amortization expense of certain acquired intangibles of $60.3 million ($49.0 million, net of tax) and $57.9 million ($47.2 million, net of tax), respectively. We calculate this financial measure by excluding the impact of acquisition-related amortization expense and including a benefit to reflect the material cash income tax savings resulting from the income tax deductibility of amortization for certain acquired intangibles. These financial measures are not prepared in conformity with GAAP. Management believes excluding the impact of amortization expense is useful because excluding acquisition -related amortization and other items that are not comparable allows investors to evaluate our performance for different periods on a more comparable basis. Certain acquired intangibles result in material cash income tax savings which are not reflected in earnings. Management believes that including a benefit to reflect the cash income tax savings is useful as it allows investors to better value Equifax. Management makes these adjustments to earnings when measuring profitability, evaluating performance trends, setting performance objectives and calculating our return on invested capital.</t>
-        </is>
-      </c>
-      <c r="B142" t="n">
-        <v>7.576459407806396</v>
-      </c>
-      <c r="C142" t="inlineStr">
-        <is>
-          <t>Logistics expense</t>
-        </is>
-      </c>
-      <c r="D142" t="inlineStr">
-        <is>
-          <t>Sector trend</t>
-        </is>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="inlineStr">
-        <is>
-          <t>Acquisition- related amortization expense - During the second quarter of 2023 and 2022, we recorded acquisition-related amortization expense of certain acquired intangibles of $60.3 million ($49.0 million, net of tax) and $57.9 million ($47.2 million, net of tax), respectively. We calculate this financial measure by excluding the impact of acquisition-related amortization expense and including a benefit to reflect the material cash income tax savings resulting from the income tax deductibility of amortization for certain acquired intangibles. These financial measures are not prepared in conformity with GAAP. Management believes excluding the impact of amortization expense is useful because excluding acquisition -related amortization and other items that are not comparable allows investors to evaluate our performance for different periods on a more comparable basis. Certain acquired intangibles result in material cash income tax savings which are not reflected in earnings. Management believes that including a benefit to reflect the cash income tax savings is useful as it allows investors to better value Equifax. Management makes these adjustments to earnings when measuring profitability, evaluating performance trends, setting performance objectives and calculating our return on invested capital.</t>
-        </is>
-      </c>
-      <c r="B143" t="n">
-        <v>9.315138816833496</v>
-      </c>
-      <c r="C143" t="inlineStr">
-        <is>
-          <t>Raw material, Logistics expense, Credit income</t>
-        </is>
-      </c>
-      <c r="D143" t="inlineStr">
-        <is>
-          <t>Sector trend, Financial metric - All</t>
-        </is>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" t="inlineStr">
-        <is>
-          <t>Acquisition- related amortization expense - During the second quarter of 2023 and 2022, we recorded acquisition-related amortization expense of certain acquired intangibles of $60.3 million ($49.0 million, net of tax) and $57.9 million ($47.2 million, net of tax), respectively. We calculate this financial measure by excluding the impact of acquisition-related amortization expense and including a benefit to reflect the material cash income tax savings resulting from the income tax deductibility of amortization for certain acquired intangibles. These financial measures are not prepared in conformity with GAAP. Management believes excluding the impact of amortization expense is useful because excluding acquisition -related amortization and other items that are not comparable allows investors to evaluate our performance for different periods on a more comparable basis. Certain acquired intangibles result in material cash income tax savings which are not reflected in earnings. Management believes that including a benefit to reflect the cash income tax savings is useful as it allows investors to better value Equifax. Management makes these adjustments to earnings when measuring profitability, evaluating performance trends, setting performance objectives and calculating our return on invested capital.</t>
-        </is>
-      </c>
-      <c r="B144" t="n">
-        <v>5.602523326873779</v>
-      </c>
-      <c r="C144" t="inlineStr">
-        <is>
-          <t>Wealth Management, Logistics expense, Credit portfolio performance</t>
-        </is>
-      </c>
-      <c r="D144" t="inlineStr">
-        <is>
-          <t>Sector trend, Financial metric - Bank</t>
-        </is>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="inlineStr">
-        <is>
-          <t>Acquisition- related amortization expense - During the second quarter of 2023 and 2022, we recorded acquisition-related amortization expense of certain acquired intangibles of $60.3 million ($49.0 million, net of tax) and $57.9 million ($47.2 million, net of tax), respectively. We calculate this financial measure by excluding the impact of acquisition-related amortization expense and including a benefit to reflect the material cash income tax savings resulting from the income tax deductibility of amortization for certain acquired intangibles. These financial measures are not prepared in conformity with GAAP. Management believes excluding the impact of amortization expense is useful because excluding acquisition -related amortization and other items that are not comparable allows investors to evaluate our performance for different periods on a more comparable basis. Certain acquired intangibles result in material cash income tax savings which are not reflected in earnings. Management believes that including a benefit to reflect the cash income tax savings is useful as it allows investors to better value Equifax. Management makes these adjustments to earnings when measuring profitability, evaluating performance trends, setting performance objectives and calculating our return on invested capital.</t>
-        </is>
-      </c>
-      <c r="B145" t="n">
-        <v>0.6353862285614014</v>
-      </c>
-      <c r="C145" t="inlineStr">
-        <is>
-          <t>Raw material, Credit income</t>
-        </is>
-      </c>
-      <c r="D145" t="inlineStr">
-        <is>
-          <t>Sector trend, Financial metric - All</t>
-        </is>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" t="inlineStr">
-        <is>
-          <t>Acquisition- related amortization expense - During the second quarter of 2023 and 2022, we recorded acquisition-related amortization expense of certain acquired intangibles of $60.3 million ($49.0 million, net of tax) and $57.9 million ($47.2 million, net of tax), respectively. We calculate this financial measure by excluding the impact of acquisition-related amortization expense and including a benefit to reflect the material cash income tax savings resulting from the income tax deductibility of amortization for certain acquired intangibles. These financial measures are not prepared in conformity with GAAP. Management believes excluding the impact of amortization expense is useful because excluding acquisition -related amortization and other items that are not comparable allows investors to evaluate our performance for different periods on a more comparable basis. Certain acquired intangibles result in material cash income tax savings which are not reflected in earnings. Management believes that including a benefit to reflect the cash income tax savings is useful as it allows investors to better value Equifax. Management makes these adjustments to earnings when measuring profitability, evaluating performance trends, setting performance objectives and calculating our return on invested capital.</t>
-        </is>
-      </c>
-      <c r="B146" t="n">
-        <v>-0.5581936836242676</v>
-      </c>
-      <c r="C146" t="inlineStr">
-        <is>
-          <t>Wealth Management, Collateral value, Credit income</t>
-        </is>
-      </c>
-      <c r="D146" t="inlineStr">
-        <is>
-          <t>Sector trend, Financial metric - Bank</t>
-        </is>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="inlineStr">
-        <is>
-          <t>Acquisition- related amortization expense - During the second quarter of 2023 and 2022, we recorded acquisition-related amortization expense of certain acquired intangibles of $60.3 million ($49.0 million, net of tax) and $57.9 million ($47.2 million, net of tax), respectively. We calculate this financial measure by excluding the impact of acquisition-related amortization expense and including a benefit to reflect the material cash income tax savings resulting from the income tax deductibility of amortization for certain acquired intangibles. These financial measures are not prepared in conformity with GAAP. Management believes excluding the impact of amortization expense is useful because excluding acquisition -related amortization and other items that are not comparable allows investors to evaluate our performance for different periods on a more comparable basis. Certain acquired intangibles result in material cash income tax savings which are not reflected in earnings. Management believes that including a benefit to reflect the cash income tax savings is useful as it allows investors to better value Equifax. Management makes these adjustments to earnings when measuring profitability, evaluating performance trends, setting performance objectives and calculating our return on invested capital.</t>
-        </is>
-      </c>
-      <c r="B147" t="n">
-        <v>8.822175979614258</v>
-      </c>
-      <c r="C147" t="inlineStr">
-        <is>
-          <t>Wealth Management, Credit portfolio performance</t>
-        </is>
-      </c>
-      <c r="D147" t="inlineStr">
-        <is>
-          <t>Sector trend, Financial metric - Bank</t>
-        </is>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" t="inlineStr">
-        <is>
-          <t>Legal expenses related to the 2017 cybersecurity incident - Legal expenses related to the 2017 cybersecurity incident include legal fees to respond to subsequent litigation and government investigations for both periods presented. During the second quarter of 2023 and 2022, we recorded legal expenses related to the 2017 cybersecurity incident of</t>
-        </is>
-      </c>
-      <c r="B148" t="n">
-        <v>9.042158126831055</v>
-      </c>
-      <c r="C148" t="inlineStr">
-        <is>
-          <t>AML litigation, Credit card fees</t>
-        </is>
-      </c>
-      <c r="D148" t="inlineStr">
-        <is>
-          <t>Sector trend, Regulation</t>
-        </is>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" t="inlineStr">
-        <is>
-          <t>$0.3 million ($0.2 million, net of tax) and $0.5 million ($0.4 million, net of tax). Management believes excluding these charges is useful as it allows investors to evaluate our performance for different periods on a more comparable basis. Management makes these adjustments to net income when measuring profitability, evaluating performance trends, setting performance objectives and calculating our return on invested capital. This is consistent with how management reviews and assesses Equifax's historical performance and is useful when planning, forecasting and analyzing future periods. The legal expenses related to the 2017 cybersecurity incident do not include losses accrued for certain legal proceedings and government investigations related to the 2017 cybersecurity incident.</t>
-        </is>
-      </c>
-      <c r="B149" t="n">
-        <v>2.802738666534424</v>
-      </c>
-      <c r="C149" t="inlineStr">
-        <is>
-          <t>Wealth Management, Credit portfolio performance</t>
-        </is>
-      </c>
-      <c r="D149" t="inlineStr">
-        <is>
-          <t>Sector trend, Financial metric - Bank</t>
-        </is>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" t="inlineStr">
-        <is>
-          <t>$0.3 million ($0.2 million, net of tax) and $0.5 million ($0.4 million, net of tax). Management believes excluding these charges is useful as it allows investors to evaluate our performance for different periods on a more comparable basis. Management makes these adjustments to net income when measuring profitability, evaluating performance trends, setting performance objectives and calculating our return on invested capital. This is consistent with how management reviews and assesses Equifax's historical performance and is useful when planning, forecasting and analyzing future periods. The legal expenses related to the 2017 cybersecurity incident do not include losses accrued for certain legal proceedings and government investigations related to the 2017 cybersecurity incident.</t>
-        </is>
-      </c>
-      <c r="B150" t="n">
-        <v>8.856791496276855</v>
-      </c>
-      <c r="C150" t="inlineStr">
-        <is>
-          <t>Wealth Management, Credit income, Credit portfolio performance</t>
-        </is>
-      </c>
-      <c r="D150" t="inlineStr">
-        <is>
-          <t>Sector trend, Financial metric - Bank</t>
-        </is>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="inlineStr">
-        <is>
-          <t>$0.3 million ($0.2 million, net of tax) and $0.5 million ($0.4 million, net of tax). Management believes excluding these charges is useful as it allows investors to evaluate our performance for different periods on a more comparable basis. Management makes these adjustments to net income when measuring profitability, evaluating performance trends, setting performance objectives and calculating our return on invested capital. This is consistent with how management reviews and assesses Equifax's historical performance and is useful when planning, forecasting and analyzing future periods. The legal expenses related to the 2017 cybersecurity incident do not include losses accrued for certain legal proceedings and government investigations related to the 2017 cybersecurity incident.</t>
-        </is>
-      </c>
-      <c r="B151" t="n">
-        <v>9.828476905822754</v>
-      </c>
-      <c r="C151" t="inlineStr">
-        <is>
-          <t>Credit portfolio performance</t>
-        </is>
-      </c>
-      <c r="D151" t="inlineStr">
-        <is>
-          <t>Sector trend</t>
-        </is>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" t="inlineStr">
-        <is>
-          <t>Fair market value adjustment and gain on sale of equity investments- During the second quarter of 2023, we recorded a $10.5 million ($6.8 million, net of tax) unrealized gain related to adjusting our investment in Brazil to fair value and gain related to sale of an equity method investment. During the second quarter of 2022 we recorded a $6.7 million</t>
-        </is>
-      </c>
-      <c r="B152" t="n">
-        <v>0.01654672622680664</v>
-      </c>
-      <c r="C152" t="inlineStr">
-        <is>
-          <t>Collateral value, Hard market, Risk adjustment</t>
-        </is>
-      </c>
-      <c r="D152" t="inlineStr">
-        <is>
-          <t>Sector trend, Financial metric - Bank</t>
-        </is>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" t="inlineStr">
-        <is>
-          <t>($5.7 million, net of tax) unrealized loss related to adjusting our investment in Brazil to fair value and gains related to the sale of two equity method investments. The investment in Brazil has a readily determinable fair value and is adjusted to fair value at the end of each reporting period, with unrealized gains or losses to be recorded within the Consolidated Statements of Income in Other income, net. Management believes excluding these charges from certain financial results provides meaningful supplemental information regarding our financial results for the three months ended June 30, 2023 and 2022, since the non-operating gains or losses are not comparable among the periods. This is consistent with how our management reviews and assesses Equifax's historical performance and is useful when planning, forecasting and analyzing future periods.</t>
-        </is>
-      </c>
-      <c r="B153" t="n">
-        <v>-0.5629728436470032</v>
-      </c>
-      <c r="C153" t="inlineStr">
-        <is>
-          <t>Collateral value</t>
-        </is>
-      </c>
-      <c r="D153" t="inlineStr">
-        <is>
-          <t>Financial metric - Bank</t>
-        </is>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" t="inlineStr">
-        <is>
-          <t>($5.7 million, net of tax) unrealized loss related to adjusting our investment in Brazil to fair value and gains related to the sale of two equity method investments. The investment in Brazil has a readily determinable fair value and is adjusted to fair value at the end of each reporting period, with unrealized gains or losses to be recorded within the Consolidated Statements of Income in Other income, net. Management believes excluding these charges from certain financial results provides meaningful supplemental information regarding our financial results for the three months ended June 30, 2023 and 2022, since the non-operating gains or losses are not comparable among the periods. This is consistent with how our management reviews and assesses Equifax's historical performance and is useful when planning, forecasting and analyzing future periods.</t>
-        </is>
-      </c>
-      <c r="B154" t="n">
-        <v>9.355177879333496</v>
-      </c>
-      <c r="C154" t="inlineStr">
-        <is>
-          <t>Net Interest Income, Fee Income, Collateral value</t>
-        </is>
-      </c>
-      <c r="D154" t="inlineStr">
-        <is>
-          <t>Financial metric - Bank</t>
-        </is>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" t="inlineStr">
-        <is>
-          <t>($5.7 million, net of tax) unrealized loss related to adjusting our investment in Brazil to fair value and gains related to the sale of two equity method investments. The investment in Brazil has a readily determinable fair value and is adjusted to fair value at the end of each reporting period, with unrealized gains or losses to be recorded within the Consolidated Statements of Income in Other income, net. Management believes excluding these charges from certain financial results provides meaningful supplemental information regarding our financial results for the three months ended June 30, 2023 and 2022, since the non-operating gains or losses are not comparable among the periods. This is consistent with how our management reviews and assesses Equifax's historical performance and is useful when planning, forecasting and analyzing future periods.</t>
-        </is>
-      </c>
-      <c r="B155" t="n">
-        <v>8.990097045898438</v>
-      </c>
-      <c r="C155" t="inlineStr">
-        <is>
-          <t>Wealth Management</t>
-        </is>
-      </c>
-      <c r="D155" t="inlineStr">
-        <is>
-          <t>Financial metric - Bank</t>
-        </is>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" t="inlineStr">
-        <is>
-          <t>($5.7 million, net of tax) unrealized loss related to adjusting our investment in Brazil to fair value and gains related to the sale of two equity method investments. The investment in Brazil has a readily determinable fair value and is adjusted to fair value at the end of each reporting period, with unrealized gains or losses to be recorded within the Consolidated Statements of Income in Other income, net. Management believes excluding these charges from certain financial results provides meaningful supplemental information regarding our financial results for the three months ended June 30, 2023 and 2022, since the non-operating gains or losses are not comparable among the periods. This is consistent with how our management reviews and assesses Equifax's historical performance and is useful when planning, forecasting and analyzing future periods.</t>
-        </is>
-      </c>
-      <c r="B156" t="n">
-        <v>9.820903778076172</v>
-      </c>
-      <c r="C156" t="inlineStr">
-        <is>
-          <t>Credit portfolio performance</t>
-        </is>
-      </c>
-      <c r="D156" t="inlineStr">
-        <is>
-          <t>Sector trend</t>
-        </is>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" t="inlineStr">
-        <is>
-          <t>Foreign currency impact of certain intercompany loans - During the second quarter of 2023 and 2022, we recorded a gain of $1.8 million and $3.0 million, respectively, related to foreign currency impact of certain intercompany loans. Management believes excluding this charge is useful as it allows investors to evaluate our performance for different periods on a more comparable basis. This is consistent with how management reviews and assesses Equifax's historical performance and is useful when planning, forecasting and analyzing future periods.</t>
-        </is>
-      </c>
-      <c r="B157" t="n">
-        <v>-1.269707679748535</v>
-      </c>
-      <c r="C157" t="inlineStr">
-        <is>
-          <t>Non-performing loans, Stage 2 loans, Stage 3 loans</t>
-        </is>
-      </c>
-      <c r="D157" t="inlineStr">
-        <is>
-          <t>Financial metric - Bank</t>
-        </is>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" t="inlineStr">
-        <is>
-          <t>Foreign currency impact of certain intercompany loans - During the second quarter of 2023 and 2022, we recorded a gain of $1.8 million and $3.0 million, respectively, related to foreign currency impact of certain intercompany loans. Management believes excluding this charge is useful as it allows investors to evaluate our performance for different periods on a more comparable basis. This is consistent with how management reviews and assesses Equifax's historical performance and is useful when planning, forecasting and analyzing future periods.</t>
-        </is>
-      </c>
-      <c r="B158" t="n">
-        <v>2.99648904800415</v>
-      </c>
-      <c r="C158" t="inlineStr">
-        <is>
-          <t>Wealth Management, Credit portfolio performance</t>
-        </is>
-      </c>
-      <c r="D158" t="inlineStr">
-        <is>
-          <t>Sector trend, Financial metric - Bank</t>
-        </is>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" t="inlineStr">
-        <is>
-          <t>Foreign currency impact of certain intercompany loans - During the second quarter of 2023 and 2022, we recorded a gain of $1.8 million and $3.0 million, respectively, related to foreign currency impact of certain intercompany loans. Management believes excluding this charge is useful as it allows investors to evaluate our performance for different periods on a more comparable basis. This is consistent with how management reviews and assesses Equifax's historical performance and is useful when planning, forecasting and analyzing future periods.</t>
-        </is>
-      </c>
-      <c r="B159" t="n">
-        <v>9.82115364074707</v>
-      </c>
-      <c r="C159" t="inlineStr">
-        <is>
-          <t>Credit portfolio performance</t>
-        </is>
-      </c>
-      <c r="D159" t="inlineStr">
-        <is>
-          <t>Sector trend</t>
-        </is>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" t="inlineStr">
-        <is>
-          <t>Acquisition-related costs other than acquisition amortization - During the second quarter of 2023 and 2022, we recorded $26.9 million ($21.2 million, net of tax) and $12.0 million ($9.1 million, net of tax), respectively, for acquisition costs other than acquisition-related amortization. These costs primarily related to integration costs resulting from recent acquisitions and were recorded in operating income. Management believes excluding this charge from certain financial results provides meaningful supplemental information regarding our financial results, since a charge of such an amount is not comparable among the periods. This is consistent with how our management reviews and assesses Equifax's historical performance and is useful when planning, forecasting, and analyzing future periods.</t>
-        </is>
-      </c>
-      <c r="B160" t="n">
-        <v>9.193694114685059</v>
-      </c>
-      <c r="C160" t="inlineStr">
-        <is>
-          <t>Distribution costs, Buying costs</t>
-        </is>
-      </c>
-      <c r="D160" t="inlineStr">
-        <is>
-          <t>Sector trend</t>
-        </is>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" t="inlineStr">
-        <is>
-          <t>Acquisition-related costs other than acquisition amortization - During the second quarter of 2023 and 2022, we recorded $26.9 million ($21.2 million, net of tax) and $12.0 million ($9.1 million, net of tax), respectively, for acquisition costs other than acquisition-related amortization. These costs primarily related to integration costs resulting from recent acquisitions and were recorded in operating income. Management believes excluding this charge from certain financial results provides meaningful supplemental information regarding our financial results, since a charge of such an amount is not comparable among the periods. This is consistent with how our management reviews and assesses Equifax's historical performance and is useful when planning, forecasting, and analyzing future periods.</t>
-        </is>
-      </c>
-      <c r="B161" t="n">
-        <v>8.68303394317627</v>
-      </c>
-      <c r="C161" t="inlineStr">
-        <is>
-          <t>Distribution costs, Buying costs, Credit income</t>
-        </is>
-      </c>
-      <c r="D161" t="inlineStr">
-        <is>
-          <t>Sector trend</t>
-        </is>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" t="inlineStr">
-        <is>
-          <t>Acquisition-related costs other than acquisition amortization - During the second quarter of 2023 and 2022, we recorded $26.9 million ($21.2 million, net of tax) and $12.0 million ($9.1 million, net of tax), respectively, for acquisition costs other than acquisition-related amortization. These costs primarily related to integration costs resulting from recent acquisitions and were recorded in operating income. Management believes excluding this charge from certain financial results provides meaningful supplemental information regarding our financial results, since a charge of such an amount is not comparable among the periods. This is consistent with how our management reviews and assesses Equifax's historical performance and is useful when planning, forecasting, and analyzing future periods.</t>
-        </is>
-      </c>
-      <c r="B162" t="n">
-        <v>9.337263107299805</v>
-      </c>
-      <c r="C162" t="inlineStr">
-        <is>
-          <t>Wealth Management</t>
-        </is>
-      </c>
-      <c r="D162" t="inlineStr">
-        <is>
-          <t>Financial metric - Bank</t>
-        </is>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" t="inlineStr">
-        <is>
-          <t>Acquisition-related costs other than acquisition amortization - During the second quarter of 2023 and 2022, we recorded $26.9 million ($21.2 million, net of tax) and $12.0 million ($9.1 million, net of tax), respectively, for acquisition costs other than acquisition-related amortization. These costs primarily related to integration costs resulting from recent acquisitions and were recorded in operating income. Management believes excluding this charge from certain financial results provides meaningful supplemental information regarding our financial results, since a charge of such an amount is not comparable among the periods. This is consistent with how our management reviews and assesses Equifax's historical performance and is useful when planning, forecasting, and analyzing future periods.</t>
-        </is>
-      </c>
-      <c r="B163" t="n">
-        <v>9.825946807861328</v>
-      </c>
-      <c r="C163" t="inlineStr">
-        <is>
-          <t>Credit portfolio performance</t>
-        </is>
-      </c>
-      <c r="D163" t="inlineStr">
-        <is>
-          <t>Sector trend</t>
-        </is>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" t="inlineStr">
-        <is>
-          <t>Income tax effects of stock awards that are recognized upon vesting or settlement-During the second quarter of 2023, we recorded a tax benefit of $0.8 million related to the tax effects of deductions for stock compensation in excess of amounts recorded for compensation costs. During the second quarter of 2022, we recorded a tax benefit of $2.0 million related to the tax effects of deductions for stock compensation in excess of amounts recorded for compensation costs. Management believes excluding this tax effect from financial results provides meaningful supplemental information regarding our financial results for the three months ended June 30, 2023 and 2022 because these amounts are non-operating and relate to income tax benefits or deficiencies for stock awards recognized when tax amounts differ from recognized stock compensation cost. This is consistent with how management reviews and assesses Equifax's historical performance and is useful when planning, forecasting and analyzing future periods.</t>
-        </is>
-      </c>
-      <c r="B164" t="n">
-        <v>9.537389755249023</v>
-      </c>
-      <c r="C164" t="inlineStr">
-        <is>
-          <t>Incentive compensation, Net Interest Income, Fee Income, Distribution costs, Buying costs</t>
-        </is>
-      </c>
-      <c r="D164" t="inlineStr">
-        <is>
-          <t>Sector trend, Financial metric - Bank, Financial metric - All</t>
-        </is>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" t="inlineStr">
-        <is>
-          <t>Income tax effects of stock awards that are recognized upon vesting or settlement-During the second quarter of 2023, we recorded a tax benefit of $0.8 million related to the tax effects of deductions for stock compensation in excess of amounts recorded for compensation costs. During the second quarter of 2022, we recorded a tax benefit of $2.0 million related to the tax effects of deductions for stock compensation in excess of amounts recorded for compensation costs. Management believes excluding this tax effect from financial results provides meaningful supplemental information regarding our financial results for the three months ended June 30, 2023 and 2022 because these amounts are non-operating and relate to income tax benefits or deficiencies for stock awards recognized when tax amounts differ from recognized stock compensation cost. This is consistent with how management reviews and assesses Equifax's historical performance and is useful when planning, forecasting and analyzing future periods.</t>
-        </is>
-      </c>
-      <c r="B165" t="n">
-        <v>5.326368808746338</v>
-      </c>
-      <c r="C165" t="inlineStr">
-        <is>
-          <t>Incentive compensation, Distribution costs, Buying costs</t>
-        </is>
-      </c>
-      <c r="D165" t="inlineStr">
-        <is>
-          <t>Sector trend, Financial metric - All</t>
-        </is>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" t="inlineStr">
-        <is>
-          <t>Income tax effects of stock awards that are recognized upon vesting or settlement-During the second quarter of 2023, we recorded a tax benefit of $0.8 million related to the tax effects of deductions for stock compensation in excess of amounts recorded for compensation costs. During the second quarter of 2022, we recorded a tax benefit of $2.0 million related to the tax effects of deductions for stock compensation in excess of amounts recorded for compensation costs. Management believes excluding this tax effect from financial results provides meaningful supplemental information regarding our financial results for the three months ended June 30, 2023 and 2022 because these amounts are non-operating and relate to income tax benefits or deficiencies for stock awards recognized when tax amounts differ from recognized stock compensation cost. This is consistent with how management reviews and assesses Equifax's historical performance and is useful when planning, forecasting and analyzing future periods.</t>
-        </is>
-      </c>
-      <c r="B166" t="n">
-        <v>9.211101531982422</v>
-      </c>
-      <c r="C166" t="inlineStr">
-        <is>
-          <t>Incentive compensation, Credit cost, Wealth Management, Fuel cost, Credit income, Price cost spread</t>
-        </is>
-      </c>
-      <c r="D166" t="inlineStr">
-        <is>
-          <t>Sector trend, Financial metric - Bank, Financial metric - All</t>
-        </is>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" t="inlineStr">
-        <is>
-          <t>Income tax effects of stock awards that are recognized upon vesting or settlement-During the second quarter of 2023, we recorded a tax benefit of $0.8 million related to the tax effects of deductions for stock compensation in excess of amounts recorded for compensation costs. During the second quarter of 2022, we recorded a tax benefit of $2.0 million related to the tax effects of deductions for stock compensation in excess of amounts recorded for compensation costs. Management believes excluding this tax effect from financial results provides meaningful supplemental information regarding our financial results for the three months ended June 30, 2023 and 2022 because these amounts are non-operating and relate to income tax benefits or deficiencies for stock awards recognized when tax amounts differ from recognized stock compensation cost. This is consistent with how management reviews and assesses Equifax's historical performance and is useful when planning, forecasting and analyzing future periods.</t>
-        </is>
-      </c>
-      <c r="B167" t="n">
-        <v>9.82115364074707</v>
-      </c>
-      <c r="C167" t="inlineStr">
-        <is>
-          <t>Credit portfolio performance</t>
-        </is>
-      </c>
-      <c r="D167" t="inlineStr">
-        <is>
-          <t>Sector trend</t>
-        </is>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" t="inlineStr">
-        <is>
-          <t>Argentina highly inflationary foreign currency adjustment - Argentina experienced multiple periods of increasing inflation rates, devaluation of the peso, and increasing borrowing rates. As such, Argentina was deemed a highly inflationary economy by accounting policymakers. We recorded a foreign currency loss of $0.1 million and a foreign currency gain of $0.1 million during the second quarter of 2023 and 2022, respectively, as a result of remeasuring the peso denominated monetary assets and liabilities due to Argentina being highly inflationary. Management believes excluding this charge is useful as it allows investors to evaluate our performance for different periods on a more comparable basis. This is consistent with how management reviews and assesses Equifax's historical performance and is useful when planning, forecasting and analyzing future periods.</t>
-        </is>
-      </c>
-      <c r="B168" t="n">
-        <v>-5.854397296905518</v>
-      </c>
-      <c r="C168" t="inlineStr">
-        <is>
-          <t>Social inflation, Interest rates, Materials inflation, Claims inflation, Risk adjustment, Order rates</t>
-        </is>
-      </c>
-      <c r="D168" t="inlineStr">
-        <is>
-          <t>Sector trend, Macro</t>
-        </is>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" t="inlineStr">
-        <is>
-          <t>Argentina highly inflationary foreign currency adjustment - Argentina experienced multiple periods of increasing inflation rates, devaluation of the peso, and increasing borrowing rates. As such, Argentina was deemed a highly inflationary economy by accounting policymakers. We recorded a foreign currency loss of $0.1 million and a foreign currency gain of $0.1 million during the second quarter of 2023 and 2022, respectively, as a result of remeasuring the peso denominated monetary assets and liabilities due to Argentina being highly inflationary. Management believes excluding this charge is useful as it allows investors to evaluate our performance for different periods on a more comparable basis. This is consistent with how management reviews and assesses Equifax's historical performance and is useful when planning, forecasting and analyzing future periods.</t>
-        </is>
-      </c>
-      <c r="B169" t="n">
-        <v>-7.698150157928467</v>
-      </c>
-      <c r="C169" t="inlineStr">
-        <is>
-          <t>Risk-weighted assets / Risk-weightings</t>
-        </is>
-      </c>
-      <c r="D169" t="inlineStr">
-        <is>
-          <t>Financial metric - Bank</t>
-        </is>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" t="inlineStr">
-        <is>
-          <t>Argentina highly inflationary foreign currency adjustment - Argentina experienced multiple periods of increasing inflation rates, devaluation of the peso, and increasing borrowing rates. As such, Argentina was deemed a highly inflationary economy by accounting policymakers. We recorded a foreign currency loss of $0.1 million and a foreign currency gain of $0.1 million during the second quarter of 2023 and 2022, respectively, as a result of remeasuring the peso denominated monetary assets and liabilities due to Argentina being highly inflationary. Management believes excluding this charge is useful as it allows investors to evaluate our performance for different periods on a more comparable basis. This is consistent with how management reviews and assesses Equifax's historical performance and is useful when planning, forecasting and analyzing future periods.</t>
-        </is>
-      </c>
-      <c r="B170" t="n">
-        <v>2.99648904800415</v>
-      </c>
-      <c r="C170" t="inlineStr">
-        <is>
-          <t>Wealth Management, Credit portfolio performance</t>
-        </is>
-      </c>
-      <c r="D170" t="inlineStr">
-        <is>
-          <t>Sector trend, Financial metric - Bank</t>
-        </is>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" t="inlineStr">
-        <is>
-          <t>Argentina highly inflationary foreign currency adjustment - Argentina experienced multiple periods of increasing inflation rates, devaluation of the peso, and increasing borrowing rates. As such, Argentina was deemed a highly inflationary economy by accounting policymakers. We recorded a foreign currency loss of $0.1 million and a foreign currency gain of $0.1 million during the second quarter of 2023 and 2022, respectively, as a result of remeasuring the peso denominated monetary assets and liabilities due to Argentina being highly inflationary. Management believes excluding this charge is useful as it allows investors to evaluate our performance for different periods on a more comparable basis. This is consistent with how management reviews and assesses Equifax's historical performance and is useful when planning, forecasting and analyzing future periods.</t>
-        </is>
-      </c>
-      <c r="B171" t="n">
-        <v>9.82115364074707</v>
-      </c>
-      <c r="C171" t="inlineStr">
-        <is>
-          <t>Credit portfolio performance</t>
-        </is>
-      </c>
-      <c r="D171" t="inlineStr">
-        <is>
-          <t>Sector trend</t>
-        </is>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" t="inlineStr">
-        <is>
-          <t>Charge related to the realignment of internal resources and other costs- During the second quarter of 2023, we recorded $17.5 million ($12.4 million, net of tax) of restructuring charges for the realignment of internal resources and other costs, which predominantly relates to the reduction of headcount and the realignment of our internal resources to support the Company's strategic objectives. Management believes excluding this charge from certain financial results provides meaningful supplemental information regarding our</t>
-        </is>
-      </c>
-      <c r="B172" t="n">
-        <v>7.697507858276367</v>
-      </c>
-      <c r="C172" t="inlineStr">
-        <is>
-          <t>Net Charge Off</t>
-        </is>
-      </c>
-      <c r="D172" t="inlineStr">
-        <is>
-          <t>Financial metric - Bank</t>
-        </is>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" t="inlineStr">
-        <is>
-          <t>Charge related to the realignment of internal resources and other costs- During the second quarter of 2023, we recorded $17.5 million ($12.4 million, net of tax) of restructuring charges for the realignment of internal resources and other costs, which predominantly relates to the reduction of headcount and the realignment of our internal resources to support the Company's strategic objectives. Management believes excluding this charge from certain financial results provides meaningful supplemental information regarding our</t>
-        </is>
-      </c>
-      <c r="B173" t="n">
-        <v>9.517958641052246</v>
-      </c>
-      <c r="C173" t="inlineStr">
-        <is>
-          <t>Wealth Management</t>
-        </is>
-      </c>
-      <c r="D173" t="inlineStr">
-        <is>
-          <t>Financial metric - Bank</t>
-        </is>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" t="inlineStr">
-        <is>
-          <t>financial results for the three months ended June 30, 2023, since the charges are not comparable among the periods. This is consistent with how our management reviews and assesses Equifax's historical performance and is useful when planning, forecasting and analyzing future periods.</t>
-        </is>
-      </c>
-      <c r="B174" t="n">
-        <v>9.820903778076172</v>
-      </c>
-      <c r="C174" t="inlineStr">
-        <is>
-          <t>Credit portfolio performance</t>
-        </is>
-      </c>
-      <c r="D174" t="inlineStr">
-        <is>
-          <t>Sector trend</t>
-        </is>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" t="inlineStr">
-        <is>
-          <t>Adjusted EBITDA and EBITDA margin - Management defines adjusted EBITDA as consolidated net income attributable to Equifax plus net interest expense, income taxes, depreciation and amortization and also excludes certain one-time items. Management believes the use of adjusted EBITDA and adjusted EBITDA margin allows investors to evaluate our performance for different periods on a more comparable basis.</t>
-        </is>
-      </c>
-      <c r="B175" t="n">
-        <v>9.255197525024414</v>
-      </c>
-      <c r="C175" t="inlineStr">
-        <is>
-          <t>Gross margin, Contribution margin, Wealth Management, ECB interest rate, Credit income</t>
-        </is>
-      </c>
-      <c r="D175" t="inlineStr">
-        <is>
-          <t>Sector trend, Financial metric - Bank, Financial metric - All, Regulation</t>
-        </is>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" t="inlineStr">
-        <is>
-          <t>Adjusted EBITDA and EBITDA margin - Management defines adjusted EBITDA as consolidated net income attributable to Equifax plus net interest expense, income taxes, depreciation and amortization and also excludes certain one-time items. Management believes the use of adjusted EBITDA and adjusted EBITDA margin allows investors to evaluate our performance for different periods on a more comparable basis.</t>
-        </is>
-      </c>
-      <c r="B176" t="n">
-        <v>9.08729362487793</v>
-      </c>
-      <c r="C176" t="inlineStr">
-        <is>
-          <t>Gross margin, Contribution margin, Wealth Management, Credit portfolio performance</t>
-        </is>
-      </c>
-      <c r="D176" t="inlineStr">
-        <is>
-          <t>Sector trend, Financial metric - Bank, Financial metric - All</t>
+          <t>Financial metric - All</t>
         </is>
       </c>
     </row>
